--- a/code/metadata-merge-20250723/input/Events_output_LRT.xlsx
+++ b/code/metadata-merge-20250723/input/Events_output_LRT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luke.thompson/My Drive/NOAA/okex/metadata/geome-fims-output-csv-okeanos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/T7A/Google Drive/NOAA/okex/metadata/geome-fims-output-csv-okeanos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5450CAFA-CB67-E641-A2D7-A50D1BA7D423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7226CA-E5C2-9B4C-AECF-F5BF8D9763EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{38735D81-E81F-2647-ABCF-564A8D4C1D14}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{38735D81-E81F-2647-ABCF-564A8D4C1D14}"/>
   </bookViews>
   <sheets>
     <sheet name="Events_output_LRT" sheetId="1" r:id="rId1"/>
@@ -3022,123 +3022,15 @@
     <t>https://n2t.net/ark:/21547/FjD2EX2301_CTD001_BLANK_c</t>
   </si>
   <si>
-    <t>EX2301_CTD002_B01</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B01W</t>
-  </si>
-  <si>
     <t>Gulf of Alaska: STN004</t>
   </si>
   <si>
     <t>2 liters of water filtered (0.45 ¬µm) from CTD Rosette preserved in DNA-RNA Shield</t>
   </si>
   <si>
-    <t>https://n2t.net/ark:/21547/Fjo2EX2301_CTD002_B01</t>
-  </si>
-  <si>
     <t>EX2303_eDNA</t>
   </si>
   <si>
-    <t>EX2301_CTD002_B02</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B02W</t>
-  </si>
-  <si>
-    <t>https://n2t.net/ark:/21547/Fjo2EX2301_CTD002_B02</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B03</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B03W</t>
-  </si>
-  <si>
-    <t>https://n2t.net/ark:/21547/Fjo2EX2301_CTD002_B03</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B04</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B04W</t>
-  </si>
-  <si>
-    <t>https://n2t.net/ark:/21547/Fjo2EX2301_CTD002_B04</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B05</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B05W</t>
-  </si>
-  <si>
-    <t>https://n2t.net/ark:/21547/Fjo2EX2301_CTD002_B05</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B06</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B06W</t>
-  </si>
-  <si>
-    <t>https://n2t.net/ark:/21547/Fjo2EX2301_CTD002_B06</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B07</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B07W</t>
-  </si>
-  <si>
-    <t>https://n2t.net/ark:/21547/Fjo2EX2301_CTD002_B07</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B08</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B08W</t>
-  </si>
-  <si>
-    <t>https://n2t.net/ark:/21547/Fjo2EX2301_CTD002_B08</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B09</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B09W</t>
-  </si>
-  <si>
-    <t>https://n2t.net/ark:/21547/Fjo2EX2301_CTD002_B09</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B10</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B10W</t>
-  </si>
-  <si>
-    <t>https://n2t.net/ark:/21547/Fjo2EX2301_CTD002_B10</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B11</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B11W</t>
-  </si>
-  <si>
-    <t>https://n2t.net/ark:/21547/Fjo2EX2301_CTD002_B11</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B12</t>
-  </si>
-  <si>
-    <t>EX2301_CTD002_B12W</t>
-  </si>
-  <si>
-    <t>https://n2t.net/ark:/21547/Fjo2EX2301_CTD002_B12</t>
-  </si>
-  <si>
     <t>EX2301_D01_01</t>
   </si>
   <si>
@@ -5279,6 +5171,114 @@
   </si>
   <si>
     <t>https://n2t.net/ark:/21547/Fsx2EX2403_CTD001_H24</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B01</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B01W</t>
+  </si>
+  <si>
+    <t>https://n2t.net/ark:/21547/Fjo2EX2303_CTD002_B01</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B02</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B02W</t>
+  </si>
+  <si>
+    <t>https://n2t.net/ark:/21547/Fjo2EX2303_CTD002_B02</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B03</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B03W</t>
+  </si>
+  <si>
+    <t>https://n2t.net/ark:/21547/Fjo2EX2303_CTD002_B03</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B04</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B04W</t>
+  </si>
+  <si>
+    <t>https://n2t.net/ark:/21547/Fjo2EX2303_CTD002_B04</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B05</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B05W</t>
+  </si>
+  <si>
+    <t>https://n2t.net/ark:/21547/Fjo2EX2303_CTD002_B05</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B06</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B06W</t>
+  </si>
+  <si>
+    <t>https://n2t.net/ark:/21547/Fjo2EX2303_CTD002_B06</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B07</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B07W</t>
+  </si>
+  <si>
+    <t>https://n2t.net/ark:/21547/Fjo2EX2303_CTD002_B07</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B08</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B08W</t>
+  </si>
+  <si>
+    <t>https://n2t.net/ark:/21547/Fjo2EX2303_CTD002_B08</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B09</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B09W</t>
+  </si>
+  <si>
+    <t>https://n2t.net/ark:/21547/Fjo2EX2303_CTD002_B09</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B10</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B10W</t>
+  </si>
+  <si>
+    <t>https://n2t.net/ark:/21547/Fjo2EX2303_CTD002_B10</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B11</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B11W</t>
+  </si>
+  <si>
+    <t>https://n2t.net/ark:/21547/Fjo2EX2303_CTD002_B11</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B12</t>
+  </si>
+  <si>
+    <t>EX2303_CTD002_B12W</t>
+  </si>
+  <si>
+    <t>https://n2t.net/ark:/21547/Fjo2EX2303_CTD002_B12</t>
   </si>
 </sst>
 </file>
@@ -6152,9 +6152,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD469FD-ECE9-0643-827D-CE9E45C6AE89}">
   <dimension ref="A1:AQ464"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO260" sqref="AO260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23902,10 +23902,10 @@
     </row>
     <row r="260" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1000</v>
+        <v>1717</v>
       </c>
       <c r="B260" t="s">
-        <v>1001</v>
+        <v>1718</v>
       </c>
       <c r="C260" t="s">
         <v>45</v>
@@ -23920,13 +23920,13 @@
         <v>340</v>
       </c>
       <c r="G260" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H260">
         <v>2023</v>
       </c>
       <c r="I260" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="J260" t="s">
         <v>49</v>
@@ -23956,10 +23956,10 @@
         <v>54</v>
       </c>
       <c r="AO260" t="s">
-        <v>1004</v>
+        <v>1719</v>
       </c>
       <c r="AP260" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AQ260">
         <v>575</v>
@@ -23967,10 +23967,10 @@
     </row>
     <row r="261" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1006</v>
+        <v>1720</v>
       </c>
       <c r="B261" t="s">
-        <v>1007</v>
+        <v>1721</v>
       </c>
       <c r="C261" t="s">
         <v>45</v>
@@ -23985,13 +23985,13 @@
         <v>340</v>
       </c>
       <c r="G261" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H261">
         <v>2023</v>
       </c>
       <c r="I261" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="J261" t="s">
         <v>49</v>
@@ -24021,10 +24021,10 @@
         <v>54</v>
       </c>
       <c r="AO261" t="s">
-        <v>1008</v>
+        <v>1722</v>
       </c>
       <c r="AP261" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AQ261">
         <v>575</v>
@@ -24032,10 +24032,10 @@
     </row>
     <row r="262" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1009</v>
+        <v>1723</v>
       </c>
       <c r="B262" t="s">
-        <v>1010</v>
+        <v>1724</v>
       </c>
       <c r="C262" t="s">
         <v>45</v>
@@ -24050,13 +24050,13 @@
         <v>340</v>
       </c>
       <c r="G262" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H262">
         <v>2023</v>
       </c>
       <c r="I262" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="J262" t="s">
         <v>49</v>
@@ -24086,10 +24086,10 @@
         <v>54</v>
       </c>
       <c r="AO262" t="s">
-        <v>1011</v>
+        <v>1725</v>
       </c>
       <c r="AP262" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AQ262">
         <v>575</v>
@@ -24097,10 +24097,10 @@
     </row>
     <row r="263" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1012</v>
+        <v>1726</v>
       </c>
       <c r="B263" t="s">
-        <v>1013</v>
+        <v>1727</v>
       </c>
       <c r="C263" t="s">
         <v>45</v>
@@ -24115,13 +24115,13 @@
         <v>340</v>
       </c>
       <c r="G263" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H263">
         <v>2023</v>
       </c>
       <c r="I263" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="J263" t="s">
         <v>49</v>
@@ -24151,10 +24151,10 @@
         <v>54</v>
       </c>
       <c r="AO263" t="s">
-        <v>1014</v>
+        <v>1728</v>
       </c>
       <c r="AP263" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AQ263">
         <v>575</v>
@@ -24162,10 +24162,10 @@
     </row>
     <row r="264" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1015</v>
+        <v>1729</v>
       </c>
       <c r="B264" t="s">
-        <v>1016</v>
+        <v>1730</v>
       </c>
       <c r="C264" t="s">
         <v>45</v>
@@ -24180,13 +24180,13 @@
         <v>340</v>
       </c>
       <c r="G264" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H264">
         <v>2023</v>
       </c>
       <c r="I264" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="J264" t="s">
         <v>49</v>
@@ -24216,10 +24216,10 @@
         <v>54</v>
       </c>
       <c r="AO264" t="s">
-        <v>1017</v>
+        <v>1731</v>
       </c>
       <c r="AP264" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AQ264">
         <v>575</v>
@@ -24227,10 +24227,10 @@
     </row>
     <row r="265" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1018</v>
+        <v>1732</v>
       </c>
       <c r="B265" t="s">
-        <v>1019</v>
+        <v>1733</v>
       </c>
       <c r="C265" t="s">
         <v>45</v>
@@ -24245,13 +24245,13 @@
         <v>340</v>
       </c>
       <c r="G265" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H265">
         <v>2023</v>
       </c>
       <c r="I265" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="J265" t="s">
         <v>49</v>
@@ -24281,10 +24281,10 @@
         <v>54</v>
       </c>
       <c r="AO265" t="s">
-        <v>1020</v>
+        <v>1734</v>
       </c>
       <c r="AP265" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AQ265">
         <v>575</v>
@@ -24292,10 +24292,10 @@
     </row>
     <row r="266" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1021</v>
+        <v>1735</v>
       </c>
       <c r="B266" t="s">
-        <v>1022</v>
+        <v>1736</v>
       </c>
       <c r="C266" t="s">
         <v>45</v>
@@ -24310,13 +24310,13 @@
         <v>340</v>
       </c>
       <c r="G266" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H266">
         <v>2023</v>
       </c>
       <c r="I266" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="J266" t="s">
         <v>49</v>
@@ -24346,10 +24346,10 @@
         <v>54</v>
       </c>
       <c r="AO266" t="s">
-        <v>1023</v>
+        <v>1737</v>
       </c>
       <c r="AP266" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AQ266">
         <v>575</v>
@@ -24357,10 +24357,10 @@
     </row>
     <row r="267" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1024</v>
+        <v>1738</v>
       </c>
       <c r="B267" t="s">
-        <v>1025</v>
+        <v>1739</v>
       </c>
       <c r="C267" t="s">
         <v>45</v>
@@ -24375,13 +24375,13 @@
         <v>340</v>
       </c>
       <c r="G267" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H267">
         <v>2023</v>
       </c>
       <c r="I267" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="J267" t="s">
         <v>49</v>
@@ -24411,10 +24411,10 @@
         <v>54</v>
       </c>
       <c r="AO267" t="s">
-        <v>1026</v>
+        <v>1740</v>
       </c>
       <c r="AP267" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AQ267">
         <v>575</v>
@@ -24422,10 +24422,10 @@
     </row>
     <row r="268" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1027</v>
+        <v>1741</v>
       </c>
       <c r="B268" t="s">
-        <v>1028</v>
+        <v>1742</v>
       </c>
       <c r="C268" t="s">
         <v>45</v>
@@ -24440,13 +24440,13 @@
         <v>340</v>
       </c>
       <c r="G268" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H268">
         <v>2023</v>
       </c>
       <c r="I268" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="J268" t="s">
         <v>49</v>
@@ -24476,10 +24476,10 @@
         <v>54</v>
       </c>
       <c r="AO268" t="s">
-        <v>1029</v>
+        <v>1743</v>
       </c>
       <c r="AP268" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AQ268">
         <v>575</v>
@@ -24487,10 +24487,10 @@
     </row>
     <row r="269" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1030</v>
+        <v>1744</v>
       </c>
       <c r="B269" t="s">
-        <v>1031</v>
+        <v>1745</v>
       </c>
       <c r="C269" t="s">
         <v>45</v>
@@ -24505,13 +24505,13 @@
         <v>340</v>
       </c>
       <c r="G269" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H269">
         <v>2023</v>
       </c>
       <c r="I269" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="J269" t="s">
         <v>49</v>
@@ -24541,10 +24541,10 @@
         <v>54</v>
       </c>
       <c r="AO269" t="s">
-        <v>1032</v>
+        <v>1746</v>
       </c>
       <c r="AP269" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AQ269">
         <v>575</v>
@@ -24552,10 +24552,10 @@
     </row>
     <row r="270" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1033</v>
+        <v>1747</v>
       </c>
       <c r="B270" t="s">
-        <v>1034</v>
+        <v>1748</v>
       </c>
       <c r="C270" t="s">
         <v>45</v>
@@ -24570,13 +24570,13 @@
         <v>340</v>
       </c>
       <c r="G270" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H270">
         <v>2023</v>
       </c>
       <c r="I270" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="J270" t="s">
         <v>49</v>
@@ -24606,10 +24606,10 @@
         <v>54</v>
       </c>
       <c r="AO270" t="s">
-        <v>1035</v>
+        <v>1749</v>
       </c>
       <c r="AP270" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AQ270">
         <v>575</v>
@@ -24617,10 +24617,10 @@
     </row>
     <row r="271" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1036</v>
+        <v>1750</v>
       </c>
       <c r="B271" t="s">
-        <v>1037</v>
+        <v>1751</v>
       </c>
       <c r="C271" t="s">
         <v>45</v>
@@ -24635,13 +24635,13 @@
         <v>340</v>
       </c>
       <c r="G271" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H271">
         <v>2023</v>
       </c>
       <c r="I271" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="J271" t="s">
         <v>49</v>
@@ -24671,10 +24671,10 @@
         <v>54</v>
       </c>
       <c r="AO271" t="s">
-        <v>1038</v>
+        <v>1752</v>
       </c>
       <c r="AP271" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AQ271">
         <v>575</v>
@@ -24682,10 +24682,10 @@
     </row>
     <row r="272" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1039</v>
+        <v>1003</v>
       </c>
       <c r="B272" t="s">
-        <v>1040</v>
+        <v>1004</v>
       </c>
       <c r="C272" t="s">
         <v>45</v>
@@ -24700,7 +24700,7 @@
         <v>340</v>
       </c>
       <c r="G272" t="s">
-        <v>1041</v>
+        <v>1005</v>
       </c>
       <c r="H272">
         <v>2023</v>
@@ -24733,7 +24733,7 @@
         <v>7.0023148148148145E-3</v>
       </c>
       <c r="AO272" t="s">
-        <v>1042</v>
+        <v>1006</v>
       </c>
       <c r="AP272" t="s">
         <v>871</v>
@@ -24744,10 +24744,10 @@
     </row>
     <row r="273" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1043</v>
+        <v>1007</v>
       </c>
       <c r="B273" t="s">
-        <v>1044</v>
+        <v>1008</v>
       </c>
       <c r="C273" t="s">
         <v>45</v>
@@ -24762,7 +24762,7 @@
         <v>340</v>
       </c>
       <c r="G273" t="s">
-        <v>1041</v>
+        <v>1005</v>
       </c>
       <c r="H273">
         <v>2023</v>
@@ -24795,7 +24795,7 @@
         <v>8.1597222222222227E-3</v>
       </c>
       <c r="AO273" t="s">
-        <v>1045</v>
+        <v>1009</v>
       </c>
       <c r="AP273" t="s">
         <v>871</v>
@@ -24806,10 +24806,10 @@
     </row>
     <row r="274" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1046</v>
+        <v>1010</v>
       </c>
       <c r="B274" t="s">
-        <v>1047</v>
+        <v>1011</v>
       </c>
       <c r="C274" t="s">
         <v>45</v>
@@ -24824,7 +24824,7 @@
         <v>340</v>
       </c>
       <c r="G274" t="s">
-        <v>1041</v>
+        <v>1005</v>
       </c>
       <c r="H274">
         <v>2023</v>
@@ -24857,7 +24857,7 @@
         <v>1.0081018518518519E-2</v>
       </c>
       <c r="AO274" t="s">
-        <v>1048</v>
+        <v>1012</v>
       </c>
       <c r="AP274" t="s">
         <v>871</v>
@@ -24868,10 +24868,10 @@
     </row>
     <row r="275" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1049</v>
+        <v>1013</v>
       </c>
       <c r="B275" t="s">
-        <v>1050</v>
+        <v>1014</v>
       </c>
       <c r="C275" t="s">
         <v>45</v>
@@ -24886,7 +24886,7 @@
         <v>340</v>
       </c>
       <c r="G275" t="s">
-        <v>1041</v>
+        <v>1005</v>
       </c>
       <c r="H275">
         <v>2023</v>
@@ -24919,7 +24919,7 @@
         <v>1.2141203703703704E-2</v>
       </c>
       <c r="AO275" t="s">
-        <v>1051</v>
+        <v>1015</v>
       </c>
       <c r="AP275" t="s">
         <v>871</v>
@@ -24930,10 +24930,10 @@
     </row>
     <row r="276" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1052</v>
+        <v>1016</v>
       </c>
       <c r="B276" t="s">
-        <v>1053</v>
+        <v>1017</v>
       </c>
       <c r="C276" t="s">
         <v>45</v>
@@ -24948,7 +24948,7 @@
         <v>340</v>
       </c>
       <c r="G276" t="s">
-        <v>1041</v>
+        <v>1005</v>
       </c>
       <c r="H276">
         <v>2023</v>
@@ -24981,7 +24981,7 @@
         <v>1.3553240740740741E-2</v>
       </c>
       <c r="AO276" t="s">
-        <v>1054</v>
+        <v>1018</v>
       </c>
       <c r="AP276" t="s">
         <v>871</v>
@@ -24992,10 +24992,10 @@
     </row>
     <row r="277" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1055</v>
+        <v>1019</v>
       </c>
       <c r="B277" t="s">
-        <v>1056</v>
+        <v>1020</v>
       </c>
       <c r="C277" t="s">
         <v>45</v>
@@ -25010,13 +25010,13 @@
         <v>340</v>
       </c>
       <c r="G277" t="s">
-        <v>1041</v>
+        <v>1005</v>
       </c>
       <c r="H277">
         <v>2023</v>
       </c>
       <c r="I277" t="s">
-        <v>1057</v>
+        <v>1021</v>
       </c>
       <c r="J277" t="s">
         <v>49</v>
@@ -25034,10 +25034,10 @@
         <v>4</v>
       </c>
       <c r="AB277" t="s">
-        <v>1058</v>
+        <v>1022</v>
       </c>
       <c r="AO277" t="s">
-        <v>1059</v>
+        <v>1023</v>
       </c>
       <c r="AP277" t="s">
         <v>871</v>
@@ -25048,10 +25048,10 @@
     </row>
     <row r="278" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1060</v>
+        <v>1024</v>
       </c>
       <c r="B278" t="s">
-        <v>1061</v>
+        <v>1025</v>
       </c>
       <c r="C278" t="s">
         <v>45</v>
@@ -25066,7 +25066,7 @@
         <v>340</v>
       </c>
       <c r="G278" t="s">
-        <v>1062</v>
+        <v>1026</v>
       </c>
       <c r="H278">
         <v>2023</v>
@@ -25096,7 +25096,7 @@
         <v>6.3657407407407404E-3</v>
       </c>
       <c r="AO278" t="s">
-        <v>1063</v>
+        <v>1027</v>
       </c>
       <c r="AP278" t="s">
         <v>871</v>
@@ -25107,10 +25107,10 @@
     </row>
     <row r="279" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1064</v>
+        <v>1028</v>
       </c>
       <c r="B279" t="s">
-        <v>1065</v>
+        <v>1029</v>
       </c>
       <c r="C279" t="s">
         <v>45</v>
@@ -25125,7 +25125,7 @@
         <v>340</v>
       </c>
       <c r="G279" t="s">
-        <v>1062</v>
+        <v>1026</v>
       </c>
       <c r="H279">
         <v>2023</v>
@@ -25158,7 +25158,7 @@
         <v>6.828703703703704E-3</v>
       </c>
       <c r="AO279" t="s">
-        <v>1066</v>
+        <v>1030</v>
       </c>
       <c r="AP279" t="s">
         <v>871</v>
@@ -25169,10 +25169,10 @@
     </row>
     <row r="280" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1067</v>
+        <v>1031</v>
       </c>
       <c r="B280" t="s">
-        <v>1068</v>
+        <v>1032</v>
       </c>
       <c r="C280" t="s">
         <v>45</v>
@@ -25187,7 +25187,7 @@
         <v>340</v>
       </c>
       <c r="G280" t="s">
-        <v>1062</v>
+        <v>1026</v>
       </c>
       <c r="H280">
         <v>2023</v>
@@ -25220,7 +25220,7 @@
         <v>7.2106481481481483E-3</v>
       </c>
       <c r="AO280" t="s">
-        <v>1069</v>
+        <v>1033</v>
       </c>
       <c r="AP280" t="s">
         <v>871</v>
@@ -25231,10 +25231,10 @@
     </row>
     <row r="281" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1070</v>
+        <v>1034</v>
       </c>
       <c r="B281" t="s">
-        <v>1071</v>
+        <v>1035</v>
       </c>
       <c r="C281" t="s">
         <v>45</v>
@@ -25249,7 +25249,7 @@
         <v>340</v>
       </c>
       <c r="G281" t="s">
-        <v>1062</v>
+        <v>1026</v>
       </c>
       <c r="H281">
         <v>2023</v>
@@ -25282,7 +25282,7 @@
         <v>7.9282407407407409E-3</v>
       </c>
       <c r="AO281" t="s">
-        <v>1072</v>
+        <v>1036</v>
       </c>
       <c r="AP281" t="s">
         <v>871</v>
@@ -25293,10 +25293,10 @@
     </row>
     <row r="282" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1073</v>
+        <v>1037</v>
       </c>
       <c r="B282" t="s">
-        <v>1074</v>
+        <v>1038</v>
       </c>
       <c r="C282" t="s">
         <v>45</v>
@@ -25311,7 +25311,7 @@
         <v>340</v>
       </c>
       <c r="G282" t="s">
-        <v>1062</v>
+        <v>1026</v>
       </c>
       <c r="H282">
         <v>2023</v>
@@ -25344,7 +25344,7 @@
         <v>8.4953703703703701E-3</v>
       </c>
       <c r="AO282" t="s">
-        <v>1075</v>
+        <v>1039</v>
       </c>
       <c r="AP282" t="s">
         <v>871</v>
@@ -25355,10 +25355,10 @@
     </row>
     <row r="283" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
       <c r="B283" t="s">
-        <v>1077</v>
+        <v>1041</v>
       </c>
       <c r="C283" t="s">
         <v>45</v>
@@ -25373,13 +25373,13 @@
         <v>340</v>
       </c>
       <c r="G283" t="s">
-        <v>1062</v>
+        <v>1026</v>
       </c>
       <c r="H283">
         <v>2023</v>
       </c>
       <c r="I283" t="s">
-        <v>1057</v>
+        <v>1021</v>
       </c>
       <c r="J283" t="s">
         <v>49</v>
@@ -25394,10 +25394,10 @@
         <v>4</v>
       </c>
       <c r="AB283" t="s">
-        <v>1058</v>
+        <v>1022</v>
       </c>
       <c r="AO283" t="s">
-        <v>1078</v>
+        <v>1042</v>
       </c>
       <c r="AP283" t="s">
         <v>871</v>
@@ -25408,10 +25408,10 @@
     </row>
     <row r="284" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1079</v>
+        <v>1043</v>
       </c>
       <c r="B284" t="s">
-        <v>1080</v>
+        <v>1044</v>
       </c>
       <c r="C284" t="s">
         <v>45</v>
@@ -25426,7 +25426,7 @@
         <v>340</v>
       </c>
       <c r="G284" t="s">
-        <v>1081</v>
+        <v>1045</v>
       </c>
       <c r="H284">
         <v>2023</v>
@@ -25456,13 +25456,13 @@
         <v>4</v>
       </c>
       <c r="AB284" t="s">
-        <v>1082</v>
+        <v>1046</v>
       </c>
       <c r="AE284" s="1">
         <v>4.1041666666666664E-2</v>
       </c>
       <c r="AO284" t="s">
-        <v>1083</v>
+        <v>1047</v>
       </c>
       <c r="AP284" t="s">
         <v>871</v>
@@ -25473,10 +25473,10 @@
     </row>
     <row r="285" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1084</v>
+        <v>1048</v>
       </c>
       <c r="B285" t="s">
-        <v>1085</v>
+        <v>1049</v>
       </c>
       <c r="C285" t="s">
         <v>45</v>
@@ -25491,7 +25491,7 @@
         <v>340</v>
       </c>
       <c r="G285" t="s">
-        <v>1081</v>
+        <v>1045</v>
       </c>
       <c r="H285">
         <v>2023</v>
@@ -25521,13 +25521,13 @@
         <v>4</v>
       </c>
       <c r="AB285" t="s">
-        <v>1086</v>
+        <v>1050</v>
       </c>
       <c r="AE285" s="1">
         <v>5.7870370370370373E-5</v>
       </c>
       <c r="AO285" t="s">
-        <v>1087</v>
+        <v>1051</v>
       </c>
       <c r="AP285" t="s">
         <v>871</v>
@@ -25538,10 +25538,10 @@
     </row>
     <row r="286" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1088</v>
+        <v>1052</v>
       </c>
       <c r="B286" t="s">
-        <v>1089</v>
+        <v>1053</v>
       </c>
       <c r="C286" t="s">
         <v>45</v>
@@ -25556,7 +25556,7 @@
         <v>340</v>
       </c>
       <c r="G286" t="s">
-        <v>1081</v>
+        <v>1045</v>
       </c>
       <c r="H286">
         <v>2023</v>
@@ -25586,13 +25586,13 @@
         <v>4</v>
       </c>
       <c r="AB286" t="s">
-        <v>1090</v>
+        <v>1054</v>
       </c>
       <c r="AE286" s="1">
         <v>7.291666666666667E-4</v>
       </c>
       <c r="AO286" t="s">
-        <v>1091</v>
+        <v>1055</v>
       </c>
       <c r="AP286" t="s">
         <v>871</v>
@@ -25603,10 +25603,10 @@
     </row>
     <row r="287" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1092</v>
+        <v>1056</v>
       </c>
       <c r="B287" t="s">
-        <v>1093</v>
+        <v>1057</v>
       </c>
       <c r="C287" t="s">
         <v>45</v>
@@ -25621,7 +25621,7 @@
         <v>340</v>
       </c>
       <c r="G287" t="s">
-        <v>1081</v>
+        <v>1045</v>
       </c>
       <c r="H287">
         <v>2023</v>
@@ -25651,13 +25651,13 @@
         <v>4</v>
       </c>
       <c r="AB287" t="s">
-        <v>1094</v>
+        <v>1058</v>
       </c>
       <c r="AE287" s="1">
         <v>1.4236111111111112E-3</v>
       </c>
       <c r="AO287" t="s">
-        <v>1095</v>
+        <v>1059</v>
       </c>
       <c r="AP287" t="s">
         <v>871</v>
@@ -25668,10 +25668,10 @@
     </row>
     <row r="288" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1096</v>
+        <v>1060</v>
       </c>
       <c r="B288" t="s">
-        <v>1097</v>
+        <v>1061</v>
       </c>
       <c r="C288" t="s">
         <v>45</v>
@@ -25686,7 +25686,7 @@
         <v>340</v>
       </c>
       <c r="G288" t="s">
-        <v>1081</v>
+        <v>1045</v>
       </c>
       <c r="H288">
         <v>2023</v>
@@ -25716,13 +25716,13 @@
         <v>4</v>
       </c>
       <c r="AB288" t="s">
-        <v>1098</v>
+        <v>1062</v>
       </c>
       <c r="AE288" s="1">
         <v>2.1180555555555558E-3</v>
       </c>
       <c r="AO288" t="s">
-        <v>1099</v>
+        <v>1063</v>
       </c>
       <c r="AP288" t="s">
         <v>871</v>
@@ -25733,10 +25733,10 @@
     </row>
     <row r="289" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1100</v>
+        <v>1064</v>
       </c>
       <c r="B289" t="s">
-        <v>1101</v>
+        <v>1065</v>
       </c>
       <c r="C289" t="s">
         <v>45</v>
@@ -25751,13 +25751,13 @@
         <v>340</v>
       </c>
       <c r="G289" t="s">
-        <v>1081</v>
+        <v>1045</v>
       </c>
       <c r="H289">
         <v>2023</v>
       </c>
       <c r="I289" t="s">
-        <v>1057</v>
+        <v>1021</v>
       </c>
       <c r="J289" t="s">
         <v>49</v>
@@ -25772,10 +25772,10 @@
         <v>4</v>
       </c>
       <c r="AB289" t="s">
-        <v>1058</v>
+        <v>1022</v>
       </c>
       <c r="AO289" t="s">
-        <v>1102</v>
+        <v>1066</v>
       </c>
       <c r="AP289" t="s">
         <v>871</v>
@@ -25786,10 +25786,10 @@
     </row>
     <row r="290" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1103</v>
+        <v>1067</v>
       </c>
       <c r="B290" t="s">
-        <v>1104</v>
+        <v>1068</v>
       </c>
       <c r="C290" t="s">
         <v>45</v>
@@ -25804,7 +25804,7 @@
         <v>340</v>
       </c>
       <c r="G290" t="s">
-        <v>1105</v>
+        <v>1069</v>
       </c>
       <c r="H290">
         <v>2023</v>
@@ -25837,7 +25837,7 @@
         <v>5.3125000000000004E-3</v>
       </c>
       <c r="AO290" t="s">
-        <v>1106</v>
+        <v>1070</v>
       </c>
       <c r="AP290" t="s">
         <v>871</v>
@@ -25848,10 +25848,10 @@
     </row>
     <row r="291" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1107</v>
+        <v>1071</v>
       </c>
       <c r="B291" t="s">
-        <v>1108</v>
+        <v>1072</v>
       </c>
       <c r="C291" t="s">
         <v>45</v>
@@ -25866,7 +25866,7 @@
         <v>340</v>
       </c>
       <c r="G291" t="s">
-        <v>1105</v>
+        <v>1069</v>
       </c>
       <c r="H291">
         <v>2023</v>
@@ -25899,7 +25899,7 @@
         <v>6.099537037037037E-3</v>
       </c>
       <c r="AO291" t="s">
-        <v>1109</v>
+        <v>1073</v>
       </c>
       <c r="AP291" t="s">
         <v>871</v>
@@ -25910,10 +25910,10 @@
     </row>
     <row r="292" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1110</v>
+        <v>1074</v>
       </c>
       <c r="B292" t="s">
-        <v>1111</v>
+        <v>1075</v>
       </c>
       <c r="C292" t="s">
         <v>45</v>
@@ -25928,7 +25928,7 @@
         <v>340</v>
       </c>
       <c r="G292" t="s">
-        <v>1105</v>
+        <v>1069</v>
       </c>
       <c r="H292">
         <v>2023</v>
@@ -25961,7 +25961,7 @@
         <v>6.7361111111111111E-3</v>
       </c>
       <c r="AO292" t="s">
-        <v>1112</v>
+        <v>1076</v>
       </c>
       <c r="AP292" t="s">
         <v>871</v>
@@ -25972,10 +25972,10 @@
     </row>
     <row r="293" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1113</v>
+        <v>1077</v>
       </c>
       <c r="B293" t="s">
-        <v>1114</v>
+        <v>1078</v>
       </c>
       <c r="C293" t="s">
         <v>45</v>
@@ -25990,7 +25990,7 @@
         <v>340</v>
       </c>
       <c r="G293" t="s">
-        <v>1105</v>
+        <v>1069</v>
       </c>
       <c r="H293">
         <v>2023</v>
@@ -26023,7 +26023,7 @@
         <v>7.3263888888888892E-3</v>
       </c>
       <c r="AO293" t="s">
-        <v>1115</v>
+        <v>1079</v>
       </c>
       <c r="AP293" t="s">
         <v>871</v>
@@ -26034,10 +26034,10 @@
     </row>
     <row r="294" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1116</v>
+        <v>1080</v>
       </c>
       <c r="B294" t="s">
-        <v>1117</v>
+        <v>1081</v>
       </c>
       <c r="C294" t="s">
         <v>45</v>
@@ -26052,7 +26052,7 @@
         <v>340</v>
       </c>
       <c r="G294" t="s">
-        <v>1105</v>
+        <v>1069</v>
       </c>
       <c r="H294">
         <v>2023</v>
@@ -26085,7 +26085,7 @@
         <v>7.7546296296296295E-3</v>
       </c>
       <c r="AO294" t="s">
-        <v>1118</v>
+        <v>1082</v>
       </c>
       <c r="AP294" t="s">
         <v>871</v>
@@ -26096,10 +26096,10 @@
     </row>
     <row r="295" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="B295" t="s">
-        <v>1120</v>
+        <v>1084</v>
       </c>
       <c r="C295" t="s">
         <v>45</v>
@@ -26114,13 +26114,13 @@
         <v>340</v>
       </c>
       <c r="G295" t="s">
-        <v>1105</v>
+        <v>1069</v>
       </c>
       <c r="H295">
         <v>2023</v>
       </c>
       <c r="I295" t="s">
-        <v>1057</v>
+        <v>1021</v>
       </c>
       <c r="J295" t="s">
         <v>49</v>
@@ -26135,10 +26135,10 @@
         <v>4</v>
       </c>
       <c r="AB295" t="s">
-        <v>1058</v>
+        <v>1022</v>
       </c>
       <c r="AO295" t="s">
-        <v>1121</v>
+        <v>1085</v>
       </c>
       <c r="AP295" t="s">
         <v>871</v>
@@ -26149,10 +26149,10 @@
     </row>
     <row r="296" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1122</v>
+        <v>1086</v>
       </c>
       <c r="B296" t="s">
-        <v>1123</v>
+        <v>1087</v>
       </c>
       <c r="C296" t="s">
         <v>45</v>
@@ -26167,7 +26167,7 @@
         <v>340</v>
       </c>
       <c r="G296" t="s">
-        <v>1124</v>
+        <v>1088</v>
       </c>
       <c r="H296">
         <v>2023</v>
@@ -26197,13 +26197,13 @@
         <v>4</v>
       </c>
       <c r="AB296" t="s">
-        <v>1082</v>
+        <v>1046</v>
       </c>
       <c r="AE296" s="1">
         <v>1.2615740740740742E-2</v>
       </c>
       <c r="AO296" t="s">
-        <v>1125</v>
+        <v>1089</v>
       </c>
       <c r="AP296" t="s">
         <v>871</v>
@@ -26214,10 +26214,10 @@
     </row>
     <row r="297" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1126</v>
+        <v>1090</v>
       </c>
       <c r="B297" t="s">
-        <v>1127</v>
+        <v>1091</v>
       </c>
       <c r="C297" t="s">
         <v>45</v>
@@ -26232,7 +26232,7 @@
         <v>340</v>
       </c>
       <c r="G297" t="s">
-        <v>1124</v>
+        <v>1088</v>
       </c>
       <c r="H297">
         <v>2023</v>
@@ -26262,13 +26262,13 @@
         <v>4</v>
       </c>
       <c r="AB297" t="s">
-        <v>1086</v>
+        <v>1050</v>
       </c>
       <c r="AE297" s="1">
         <v>1.3414351851851853E-2</v>
       </c>
       <c r="AO297" t="s">
-        <v>1128</v>
+        <v>1092</v>
       </c>
       <c r="AP297" t="s">
         <v>871</v>
@@ -26279,10 +26279,10 @@
     </row>
     <row r="298" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1129</v>
+        <v>1093</v>
       </c>
       <c r="B298" t="s">
-        <v>1130</v>
+        <v>1094</v>
       </c>
       <c r="C298" t="s">
         <v>45</v>
@@ -26297,7 +26297,7 @@
         <v>340</v>
       </c>
       <c r="G298" t="s">
-        <v>1124</v>
+        <v>1088</v>
       </c>
       <c r="H298">
         <v>2023</v>
@@ -26327,13 +26327,13 @@
         <v>4</v>
       </c>
       <c r="AB298" t="s">
-        <v>1090</v>
+        <v>1054</v>
       </c>
       <c r="AE298" s="1">
         <v>1.3946759259259259E-2</v>
       </c>
       <c r="AO298" t="s">
-        <v>1131</v>
+        <v>1095</v>
       </c>
       <c r="AP298" t="s">
         <v>871</v>
@@ -26344,10 +26344,10 @@
     </row>
     <row r="299" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1132</v>
+        <v>1096</v>
       </c>
       <c r="B299" t="s">
-        <v>1133</v>
+        <v>1097</v>
       </c>
       <c r="C299" t="s">
         <v>45</v>
@@ -26362,7 +26362,7 @@
         <v>340</v>
       </c>
       <c r="G299" t="s">
-        <v>1124</v>
+        <v>1088</v>
       </c>
       <c r="H299">
         <v>2023</v>
@@ -26392,13 +26392,13 @@
         <v>4</v>
       </c>
       <c r="AB299" t="s">
-        <v>1094</v>
+        <v>1058</v>
       </c>
       <c r="AE299" s="1">
         <v>1.4664351851851852E-2</v>
       </c>
       <c r="AO299" t="s">
-        <v>1134</v>
+        <v>1098</v>
       </c>
       <c r="AP299" t="s">
         <v>871</v>
@@ -26409,10 +26409,10 @@
     </row>
     <row r="300" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1135</v>
+        <v>1099</v>
       </c>
       <c r="B300" t="s">
-        <v>1136</v>
+        <v>1100</v>
       </c>
       <c r="C300" t="s">
         <v>45</v>
@@ -26427,7 +26427,7 @@
         <v>340</v>
       </c>
       <c r="G300" t="s">
-        <v>1124</v>
+        <v>1088</v>
       </c>
       <c r="H300">
         <v>2023</v>
@@ -26457,13 +26457,13 @@
         <v>4</v>
       </c>
       <c r="AB300" t="s">
-        <v>1098</v>
+        <v>1062</v>
       </c>
       <c r="AE300" s="1">
         <v>1.9756944444444445E-2</v>
       </c>
       <c r="AO300" t="s">
-        <v>1137</v>
+        <v>1101</v>
       </c>
       <c r="AP300" t="s">
         <v>871</v>
@@ -26474,10 +26474,10 @@
     </row>
     <row r="301" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1138</v>
+        <v>1102</v>
       </c>
       <c r="B301" t="s">
-        <v>1139</v>
+        <v>1103</v>
       </c>
       <c r="C301" t="s">
         <v>45</v>
@@ -26492,13 +26492,13 @@
         <v>340</v>
       </c>
       <c r="G301" t="s">
-        <v>1124</v>
+        <v>1088</v>
       </c>
       <c r="H301">
         <v>2023</v>
       </c>
       <c r="I301" t="s">
-        <v>1057</v>
+        <v>1021</v>
       </c>
       <c r="J301" t="s">
         <v>49</v>
@@ -26513,10 +26513,10 @@
         <v>4</v>
       </c>
       <c r="AB301" t="s">
-        <v>1058</v>
+        <v>1022</v>
       </c>
       <c r="AO301" t="s">
-        <v>1140</v>
+        <v>1104</v>
       </c>
       <c r="AP301" t="s">
         <v>871</v>
@@ -26527,10 +26527,10 @@
     </row>
     <row r="302" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1141</v>
+        <v>1105</v>
       </c>
       <c r="B302" t="s">
-        <v>1142</v>
+        <v>1106</v>
       </c>
       <c r="C302" t="s">
         <v>45</v>
@@ -26545,7 +26545,7 @@
         <v>340</v>
       </c>
       <c r="G302" t="s">
-        <v>1143</v>
+        <v>1107</v>
       </c>
       <c r="H302">
         <v>2023</v>
@@ -26575,13 +26575,13 @@
         <v>4</v>
       </c>
       <c r="AB302" t="s">
-        <v>1082</v>
+        <v>1046</v>
       </c>
       <c r="AE302" s="1">
         <v>3.2453703703703707E-2</v>
       </c>
       <c r="AO302" t="s">
-        <v>1144</v>
+        <v>1108</v>
       </c>
       <c r="AP302" t="s">
         <v>871</v>
@@ -26592,10 +26592,10 @@
     </row>
     <row r="303" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1145</v>
+        <v>1109</v>
       </c>
       <c r="B303" t="s">
-        <v>1146</v>
+        <v>1110</v>
       </c>
       <c r="C303" t="s">
         <v>45</v>
@@ -26610,7 +26610,7 @@
         <v>340</v>
       </c>
       <c r="G303" t="s">
-        <v>1143</v>
+        <v>1107</v>
       </c>
       <c r="H303">
         <v>2023</v>
@@ -26640,13 +26640,13 @@
         <v>4</v>
       </c>
       <c r="AB303" t="s">
-        <v>1086</v>
+        <v>1050</v>
       </c>
       <c r="AE303" s="1">
         <v>3.4733796296296297E-2</v>
       </c>
       <c r="AO303" t="s">
-        <v>1147</v>
+        <v>1111</v>
       </c>
       <c r="AP303" t="s">
         <v>871</v>
@@ -26657,10 +26657,10 @@
     </row>
     <row r="304" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1148</v>
+        <v>1112</v>
       </c>
       <c r="B304" t="s">
-        <v>1149</v>
+        <v>1113</v>
       </c>
       <c r="C304" t="s">
         <v>45</v>
@@ -26675,7 +26675,7 @@
         <v>340</v>
       </c>
       <c r="G304" t="s">
-        <v>1143</v>
+        <v>1107</v>
       </c>
       <c r="H304">
         <v>2023</v>
@@ -26705,13 +26705,13 @@
         <v>4</v>
       </c>
       <c r="AB304" t="s">
-        <v>1090</v>
+        <v>1054</v>
       </c>
       <c r="AE304" s="1">
         <v>1.0104166666666666E-2</v>
       </c>
       <c r="AO304" t="s">
-        <v>1150</v>
+        <v>1114</v>
       </c>
       <c r="AP304" t="s">
         <v>871</v>
@@ -26722,10 +26722,10 @@
     </row>
     <row r="305" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1151</v>
+        <v>1115</v>
       </c>
       <c r="B305" t="s">
-        <v>1152</v>
+        <v>1116</v>
       </c>
       <c r="C305" t="s">
         <v>45</v>
@@ -26740,7 +26740,7 @@
         <v>340</v>
       </c>
       <c r="G305" t="s">
-        <v>1143</v>
+        <v>1107</v>
       </c>
       <c r="H305">
         <v>2023</v>
@@ -26770,13 +26770,13 @@
         <v>4</v>
       </c>
       <c r="AB305" t="s">
-        <v>1094</v>
+        <v>1058</v>
       </c>
       <c r="AE305" s="1">
         <v>1.1828703703703704E-2</v>
       </c>
       <c r="AO305" t="s">
-        <v>1153</v>
+        <v>1117</v>
       </c>
       <c r="AP305" t="s">
         <v>871</v>
@@ -26787,10 +26787,10 @@
     </row>
     <row r="306" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1154</v>
+        <v>1118</v>
       </c>
       <c r="B306" t="s">
-        <v>1155</v>
+        <v>1119</v>
       </c>
       <c r="C306" t="s">
         <v>45</v>
@@ -26805,7 +26805,7 @@
         <v>340</v>
       </c>
       <c r="G306" t="s">
-        <v>1143</v>
+        <v>1107</v>
       </c>
       <c r="H306">
         <v>2023</v>
@@ -26835,13 +26835,13 @@
         <v>4</v>
       </c>
       <c r="AB306" t="s">
-        <v>1098</v>
+        <v>1062</v>
       </c>
       <c r="AE306" s="1">
         <v>1.292824074074074E-2</v>
       </c>
       <c r="AO306" t="s">
-        <v>1156</v>
+        <v>1120</v>
       </c>
       <c r="AP306" t="s">
         <v>871</v>
@@ -26852,10 +26852,10 @@
     </row>
     <row r="307" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1157</v>
+        <v>1121</v>
       </c>
       <c r="B307" t="s">
-        <v>1158</v>
+        <v>1122</v>
       </c>
       <c r="C307" t="s">
         <v>45</v>
@@ -26870,13 +26870,13 @@
         <v>340</v>
       </c>
       <c r="G307" t="s">
-        <v>1143</v>
+        <v>1107</v>
       </c>
       <c r="H307">
         <v>2023</v>
       </c>
       <c r="I307" t="s">
-        <v>1057</v>
+        <v>1021</v>
       </c>
       <c r="J307" t="s">
         <v>49</v>
@@ -26891,10 +26891,10 @@
         <v>4</v>
       </c>
       <c r="AB307" t="s">
-        <v>1058</v>
+        <v>1022</v>
       </c>
       <c r="AO307" t="s">
-        <v>1159</v>
+        <v>1123</v>
       </c>
       <c r="AP307" t="s">
         <v>871</v>
@@ -26905,10 +26905,10 @@
     </row>
     <row r="308" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1160</v>
+        <v>1124</v>
       </c>
       <c r="B308" t="s">
-        <v>1161</v>
+        <v>1125</v>
       </c>
       <c r="C308" t="s">
         <v>45</v>
@@ -26923,7 +26923,7 @@
         <v>340</v>
       </c>
       <c r="G308" t="s">
-        <v>1162</v>
+        <v>1126</v>
       </c>
       <c r="H308">
         <v>2023</v>
@@ -26953,13 +26953,13 @@
         <v>4</v>
       </c>
       <c r="AB308" t="s">
-        <v>1082</v>
+        <v>1046</v>
       </c>
       <c r="AE308" s="1">
         <v>2.6724537037037036E-2</v>
       </c>
       <c r="AO308" t="s">
-        <v>1163</v>
+        <v>1127</v>
       </c>
       <c r="AP308" t="s">
         <v>871</v>
@@ -26970,10 +26970,10 @@
     </row>
     <row r="309" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1164</v>
+        <v>1128</v>
       </c>
       <c r="B309" t="s">
-        <v>1165</v>
+        <v>1129</v>
       </c>
       <c r="C309" t="s">
         <v>45</v>
@@ -26988,7 +26988,7 @@
         <v>340</v>
       </c>
       <c r="G309" t="s">
-        <v>1162</v>
+        <v>1126</v>
       </c>
       <c r="H309">
         <v>2023</v>
@@ -27018,13 +27018,13 @@
         <v>4</v>
       </c>
       <c r="AB309" t="s">
-        <v>1086</v>
+        <v>1050</v>
       </c>
       <c r="AE309" s="1">
         <v>2.7766203703703703E-2</v>
       </c>
       <c r="AO309" t="s">
-        <v>1166</v>
+        <v>1130</v>
       </c>
       <c r="AP309" t="s">
         <v>871</v>
@@ -27035,10 +27035,10 @@
     </row>
     <row r="310" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1167</v>
+        <v>1131</v>
       </c>
       <c r="B310" t="s">
-        <v>1168</v>
+        <v>1132</v>
       </c>
       <c r="C310" t="s">
         <v>45</v>
@@ -27053,7 +27053,7 @@
         <v>340</v>
       </c>
       <c r="G310" t="s">
-        <v>1162</v>
+        <v>1126</v>
       </c>
       <c r="H310">
         <v>2023</v>
@@ -27083,13 +27083,13 @@
         <v>4</v>
       </c>
       <c r="AB310" t="s">
-        <v>1090</v>
+        <v>1054</v>
       </c>
       <c r="AE310" s="1">
         <v>2.8726851851851851E-2</v>
       </c>
       <c r="AO310" t="s">
-        <v>1169</v>
+        <v>1133</v>
       </c>
       <c r="AP310" t="s">
         <v>871</v>
@@ -27100,10 +27100,10 @@
     </row>
     <row r="311" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1170</v>
+        <v>1134</v>
       </c>
       <c r="B311" t="s">
-        <v>1171</v>
+        <v>1135</v>
       </c>
       <c r="C311" t="s">
         <v>45</v>
@@ -27118,7 +27118,7 @@
         <v>340</v>
       </c>
       <c r="G311" t="s">
-        <v>1162</v>
+        <v>1126</v>
       </c>
       <c r="H311">
         <v>2023</v>
@@ -27148,13 +27148,13 @@
         <v>4</v>
       </c>
       <c r="AB311" t="s">
-        <v>1094</v>
+        <v>1058</v>
       </c>
       <c r="AE311" s="1">
         <v>2.9849537037037036E-2</v>
       </c>
       <c r="AO311" t="s">
-        <v>1172</v>
+        <v>1136</v>
       </c>
       <c r="AP311" t="s">
         <v>871</v>
@@ -27165,10 +27165,10 @@
     </row>
     <row r="312" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1173</v>
+        <v>1137</v>
       </c>
       <c r="B312" t="s">
-        <v>1174</v>
+        <v>1138</v>
       </c>
       <c r="C312" t="s">
         <v>45</v>
@@ -27183,7 +27183,7 @@
         <v>340</v>
       </c>
       <c r="G312" t="s">
-        <v>1162</v>
+        <v>1126</v>
       </c>
       <c r="H312">
         <v>2023</v>
@@ -27213,13 +27213,13 @@
         <v>4</v>
       </c>
       <c r="AB312" t="s">
-        <v>1098</v>
+        <v>1062</v>
       </c>
       <c r="AE312" s="1">
         <v>3.1122685185185184E-2</v>
       </c>
       <c r="AO312" t="s">
-        <v>1175</v>
+        <v>1139</v>
       </c>
       <c r="AP312" t="s">
         <v>871</v>
@@ -27230,10 +27230,10 @@
     </row>
     <row r="313" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1176</v>
+        <v>1140</v>
       </c>
       <c r="B313" t="s">
-        <v>1177</v>
+        <v>1141</v>
       </c>
       <c r="C313" t="s">
         <v>45</v>
@@ -27248,13 +27248,13 @@
         <v>340</v>
       </c>
       <c r="G313" t="s">
-        <v>1162</v>
+        <v>1126</v>
       </c>
       <c r="H313">
         <v>2023</v>
       </c>
       <c r="I313" t="s">
-        <v>1057</v>
+        <v>1021</v>
       </c>
       <c r="J313" t="s">
         <v>49</v>
@@ -27269,10 +27269,10 @@
         <v>4</v>
       </c>
       <c r="AB313" t="s">
-        <v>1058</v>
+        <v>1022</v>
       </c>
       <c r="AO313" t="s">
-        <v>1178</v>
+        <v>1142</v>
       </c>
       <c r="AP313" t="s">
         <v>871</v>
@@ -27283,10 +27283,10 @@
     </row>
     <row r="314" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1179</v>
+        <v>1143</v>
       </c>
       <c r="B314" t="s">
-        <v>1180</v>
+        <v>1144</v>
       </c>
       <c r="C314" t="s">
         <v>45</v>
@@ -27301,7 +27301,7 @@
         <v>340</v>
       </c>
       <c r="G314" t="s">
-        <v>1181</v>
+        <v>1145</v>
       </c>
       <c r="H314">
         <v>2023</v>
@@ -27334,7 +27334,7 @@
         <v>3.5648148148148149E-3</v>
       </c>
       <c r="AO314" t="s">
-        <v>1182</v>
+        <v>1146</v>
       </c>
       <c r="AP314" t="s">
         <v>871</v>
@@ -27345,10 +27345,10 @@
     </row>
     <row r="315" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1183</v>
+        <v>1147</v>
       </c>
       <c r="B315" t="s">
-        <v>1184</v>
+        <v>1148</v>
       </c>
       <c r="C315" t="s">
         <v>45</v>
@@ -27363,7 +27363,7 @@
         <v>340</v>
       </c>
       <c r="G315" t="s">
-        <v>1181</v>
+        <v>1145</v>
       </c>
       <c r="H315">
         <v>2023</v>
@@ -27396,7 +27396,7 @@
         <v>6.4583333333333333E-3</v>
       </c>
       <c r="AO315" t="s">
-        <v>1185</v>
+        <v>1149</v>
       </c>
       <c r="AP315" t="s">
         <v>871</v>
@@ -27407,10 +27407,10 @@
     </row>
     <row r="316" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1186</v>
+        <v>1150</v>
       </c>
       <c r="B316" t="s">
-        <v>1187</v>
+        <v>1151</v>
       </c>
       <c r="C316" t="s">
         <v>45</v>
@@ -27425,7 +27425,7 @@
         <v>340</v>
       </c>
       <c r="G316" t="s">
-        <v>1181</v>
+        <v>1145</v>
       </c>
       <c r="H316">
         <v>2023</v>
@@ -27458,7 +27458,7 @@
         <v>1.2326388888888888E-2</v>
       </c>
       <c r="AO316" t="s">
-        <v>1188</v>
+        <v>1152</v>
       </c>
       <c r="AP316" t="s">
         <v>871</v>
@@ -27469,10 +27469,10 @@
     </row>
     <row r="317" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1189</v>
+        <v>1153</v>
       </c>
       <c r="B317" t="s">
-        <v>1190</v>
+        <v>1154</v>
       </c>
       <c r="C317" t="s">
         <v>45</v>
@@ -27487,7 +27487,7 @@
         <v>340</v>
       </c>
       <c r="G317" t="s">
-        <v>1181</v>
+        <v>1145</v>
       </c>
       <c r="H317">
         <v>2023</v>
@@ -27520,7 +27520,7 @@
         <v>1.4884259259259259E-2</v>
       </c>
       <c r="AO317" t="s">
-        <v>1191</v>
+        <v>1155</v>
       </c>
       <c r="AP317" t="s">
         <v>871</v>
@@ -27531,10 +27531,10 @@
     </row>
     <row r="318" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1192</v>
+        <v>1156</v>
       </c>
       <c r="B318" t="s">
-        <v>1193</v>
+        <v>1157</v>
       </c>
       <c r="C318" t="s">
         <v>45</v>
@@ -27549,7 +27549,7 @@
         <v>340</v>
       </c>
       <c r="G318" t="s">
-        <v>1181</v>
+        <v>1145</v>
       </c>
       <c r="H318">
         <v>2023</v>
@@ -27582,7 +27582,7 @@
         <v>2.4710648148148148E-2</v>
       </c>
       <c r="AO318" t="s">
-        <v>1194</v>
+        <v>1158</v>
       </c>
       <c r="AP318" t="s">
         <v>871</v>
@@ -27593,10 +27593,10 @@
     </row>
     <row r="319" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1195</v>
+        <v>1159</v>
       </c>
       <c r="B319" t="s">
-        <v>1196</v>
+        <v>1160</v>
       </c>
       <c r="C319" t="s">
         <v>45</v>
@@ -27611,13 +27611,13 @@
         <v>340</v>
       </c>
       <c r="G319" t="s">
-        <v>1181</v>
+        <v>1145</v>
       </c>
       <c r="H319">
         <v>2023</v>
       </c>
       <c r="I319" t="s">
-        <v>1057</v>
+        <v>1021</v>
       </c>
       <c r="J319" t="s">
         <v>49</v>
@@ -27632,10 +27632,10 @@
         <v>4</v>
       </c>
       <c r="AB319" t="s">
-        <v>1058</v>
+        <v>1022</v>
       </c>
       <c r="AO319" t="s">
-        <v>1197</v>
+        <v>1161</v>
       </c>
       <c r="AP319" t="s">
         <v>871</v>
@@ -27646,10 +27646,10 @@
     </row>
     <row r="320" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1198</v>
+        <v>1162</v>
       </c>
       <c r="B320" t="s">
-        <v>1199</v>
+        <v>1163</v>
       </c>
       <c r="C320" t="s">
         <v>45</v>
@@ -27664,13 +27664,13 @@
         <v>340</v>
       </c>
       <c r="G320" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H320">
         <v>2023</v>
       </c>
       <c r="I320" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M320">
         <v>15</v>
@@ -27679,7 +27679,7 @@
         <v>117</v>
       </c>
       <c r="R320" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T320">
         <v>2159.2670899999998</v>
@@ -27688,7 +27688,7 @@
         <v>2159.2670899999998</v>
       </c>
       <c r="AB320" t="s">
-        <v>1203</v>
+        <v>1167</v>
       </c>
       <c r="AE320">
         <v>180907</v>
@@ -27697,10 +27697,10 @@
         <v>54</v>
       </c>
       <c r="AO320" t="s">
-        <v>1204</v>
+        <v>1168</v>
       </c>
       <c r="AP320" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ320">
         <v>575</v>
@@ -27708,10 +27708,10 @@
     </row>
     <row r="321" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1206</v>
+        <v>1170</v>
       </c>
       <c r="B321" t="s">
-        <v>1207</v>
+        <v>1171</v>
       </c>
       <c r="C321" t="s">
         <v>45</v>
@@ -27726,13 +27726,13 @@
         <v>340</v>
       </c>
       <c r="G321" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H321">
         <v>2023</v>
       </c>
       <c r="I321" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M321">
         <v>15</v>
@@ -27741,7 +27741,7 @@
         <v>51</v>
       </c>
       <c r="R321" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T321">
         <v>898.80297849999999</v>
@@ -27753,7 +27753,7 @@
         <v>898.80297849999999</v>
       </c>
       <c r="AB321" t="s">
-        <v>1208</v>
+        <v>1172</v>
       </c>
       <c r="AE321">
         <v>193011</v>
@@ -27762,10 +27762,10 @@
         <v>54</v>
       </c>
       <c r="AO321" t="s">
-        <v>1209</v>
+        <v>1173</v>
       </c>
       <c r="AP321" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ321">
         <v>575</v>
@@ -27773,10 +27773,10 @@
     </row>
     <row r="322" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1210</v>
+        <v>1174</v>
       </c>
       <c r="B322" t="s">
-        <v>1211</v>
+        <v>1175</v>
       </c>
       <c r="C322" t="s">
         <v>45</v>
@@ -27791,13 +27791,13 @@
         <v>340</v>
       </c>
       <c r="G322" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H322">
         <v>2023</v>
       </c>
       <c r="I322" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M322">
         <v>15</v>
@@ -27806,7 +27806,7 @@
         <v>51</v>
       </c>
       <c r="R322" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T322">
         <v>701.38201900000001</v>
@@ -27821,10 +27821,10 @@
         <v>54</v>
       </c>
       <c r="AO322" t="s">
-        <v>1212</v>
+        <v>1176</v>
       </c>
       <c r="AP322" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ322">
         <v>575</v>
@@ -27832,10 +27832,10 @@
     </row>
     <row r="323" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1213</v>
+        <v>1177</v>
       </c>
       <c r="B323" t="s">
-        <v>1214</v>
+        <v>1178</v>
       </c>
       <c r="C323" t="s">
         <v>45</v>
@@ -27850,13 +27850,13 @@
         <v>340</v>
       </c>
       <c r="G323" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H323">
         <v>2023</v>
       </c>
       <c r="I323" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M323">
         <v>15</v>
@@ -27865,7 +27865,7 @@
         <v>51</v>
       </c>
       <c r="R323" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T323">
         <v>502.14801030000001</v>
@@ -27877,7 +27877,7 @@
         <v>502.14801030000001</v>
       </c>
       <c r="AB323" t="s">
-        <v>1215</v>
+        <v>1179</v>
       </c>
       <c r="AE323">
         <v>210208</v>
@@ -27886,10 +27886,10 @@
         <v>54</v>
       </c>
       <c r="AO323" t="s">
-        <v>1216</v>
+        <v>1180</v>
       </c>
       <c r="AP323" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ323">
         <v>575</v>
@@ -27897,10 +27897,10 @@
     </row>
     <row r="324" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1217</v>
+        <v>1181</v>
       </c>
       <c r="B324" t="s">
-        <v>1218</v>
+        <v>1182</v>
       </c>
       <c r="C324" t="s">
         <v>45</v>
@@ -27915,13 +27915,13 @@
         <v>340</v>
       </c>
       <c r="G324" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H324">
         <v>2023</v>
       </c>
       <c r="I324" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M324">
         <v>15</v>
@@ -27930,7 +27930,7 @@
         <v>51</v>
       </c>
       <c r="R324" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T324">
         <v>301.4509888</v>
@@ -27942,7 +27942,7 @@
         <v>301.4509888</v>
       </c>
       <c r="AB324" t="s">
-        <v>1219</v>
+        <v>1183</v>
       </c>
       <c r="AE324">
         <v>214439</v>
@@ -27951,10 +27951,10 @@
         <v>54</v>
       </c>
       <c r="AO324" t="s">
-        <v>1220</v>
+        <v>1184</v>
       </c>
       <c r="AP324" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ324">
         <v>575</v>
@@ -27962,10 +27962,10 @@
     </row>
     <row r="325" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1221</v>
+        <v>1185</v>
       </c>
       <c r="B325" t="s">
-        <v>1222</v>
+        <v>1186</v>
       </c>
       <c r="C325" t="s">
         <v>45</v>
@@ -27980,13 +27980,13 @@
         <v>340</v>
       </c>
       <c r="G325" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H325">
         <v>2023</v>
       </c>
       <c r="I325" t="s">
-        <v>1223</v>
+        <v>1187</v>
       </c>
       <c r="K325" t="s">
         <v>869</v>
@@ -27995,19 +27995,19 @@
         <v>15</v>
       </c>
       <c r="R325" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="AB325" t="s">
-        <v>1224</v>
+        <v>1188</v>
       </c>
       <c r="AH325" t="s">
         <v>54</v>
       </c>
       <c r="AO325" t="s">
-        <v>1225</v>
+        <v>1189</v>
       </c>
       <c r="AP325" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ325">
         <v>575</v>
@@ -28015,10 +28015,10 @@
     </row>
     <row r="326" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1226</v>
+        <v>1190</v>
       </c>
       <c r="B326" t="s">
-        <v>1227</v>
+        <v>1191</v>
       </c>
       <c r="C326" t="s">
         <v>45</v>
@@ -28033,13 +28033,13 @@
         <v>340</v>
       </c>
       <c r="G326" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H326">
         <v>2023</v>
       </c>
       <c r="I326" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M326">
         <v>16</v>
@@ -28048,7 +28048,7 @@
         <v>51</v>
       </c>
       <c r="R326" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T326">
         <v>300.8840027</v>
@@ -28069,10 +28069,10 @@
         <v>54</v>
       </c>
       <c r="AO326" t="s">
-        <v>1228</v>
+        <v>1192</v>
       </c>
       <c r="AP326" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ326">
         <v>575</v>
@@ -28080,10 +28080,10 @@
     </row>
     <row r="327" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1229</v>
+        <v>1193</v>
       </c>
       <c r="B327" t="s">
-        <v>1230</v>
+        <v>1194</v>
       </c>
       <c r="C327" t="s">
         <v>45</v>
@@ -28098,13 +28098,13 @@
         <v>340</v>
       </c>
       <c r="G327" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H327">
         <v>2023</v>
       </c>
       <c r="I327" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M327">
         <v>16</v>
@@ -28116,7 +28116,7 @@
         <v>117</v>
       </c>
       <c r="R327" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T327">
         <v>2320.913086</v>
@@ -28125,7 +28125,7 @@
         <v>2320.913086</v>
       </c>
       <c r="AB327" t="s">
-        <v>1231</v>
+        <v>1195</v>
       </c>
       <c r="AE327">
         <v>180416</v>
@@ -28134,10 +28134,10 @@
         <v>54</v>
       </c>
       <c r="AO327" t="s">
-        <v>1232</v>
+        <v>1196</v>
       </c>
       <c r="AP327" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ327">
         <v>575</v>
@@ -28145,10 +28145,10 @@
     </row>
     <row r="328" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1233</v>
+        <v>1197</v>
       </c>
       <c r="B328" t="s">
-        <v>1234</v>
+        <v>1198</v>
       </c>
       <c r="C328" t="s">
         <v>45</v>
@@ -28163,13 +28163,13 @@
         <v>340</v>
       </c>
       <c r="G328" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H328">
         <v>2023</v>
       </c>
       <c r="I328" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M328">
         <v>16</v>
@@ -28178,7 +28178,7 @@
         <v>117</v>
       </c>
       <c r="R328" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T328">
         <v>2241.5239259999998</v>
@@ -28187,7 +28187,7 @@
         <v>2241.5239259999998</v>
       </c>
       <c r="AB328" t="s">
-        <v>1235</v>
+        <v>1199</v>
       </c>
       <c r="AE328">
         <v>210503</v>
@@ -28196,10 +28196,10 @@
         <v>54</v>
       </c>
       <c r="AO328" t="s">
-        <v>1236</v>
+        <v>1200</v>
       </c>
       <c r="AP328" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ328">
         <v>575</v>
@@ -28207,10 +28207,10 @@
     </row>
     <row r="329" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1237</v>
+        <v>1201</v>
       </c>
       <c r="B329" t="s">
-        <v>1238</v>
+        <v>1202</v>
       </c>
       <c r="C329" t="s">
         <v>45</v>
@@ -28225,13 +28225,13 @@
         <v>340</v>
       </c>
       <c r="G329" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H329">
         <v>2023</v>
       </c>
       <c r="I329" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M329">
         <v>16</v>
@@ -28240,7 +28240,7 @@
         <v>117</v>
       </c>
       <c r="R329" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T329">
         <v>2185.5139159999999</v>
@@ -28249,7 +28249,7 @@
         <v>2185.5139159999999</v>
       </c>
       <c r="AB329" t="s">
-        <v>1239</v>
+        <v>1203</v>
       </c>
       <c r="AE329">
         <v>222107</v>
@@ -28258,10 +28258,10 @@
         <v>54</v>
       </c>
       <c r="AO329" t="s">
-        <v>1240</v>
+        <v>1204</v>
       </c>
       <c r="AP329" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ329">
         <v>575</v>
@@ -28269,10 +28269,10 @@
     </row>
     <row r="330" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1241</v>
+        <v>1205</v>
       </c>
       <c r="B330" t="s">
-        <v>1242</v>
+        <v>1206</v>
       </c>
       <c r="C330" t="s">
         <v>45</v>
@@ -28287,13 +28287,13 @@
         <v>340</v>
       </c>
       <c r="G330" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H330">
         <v>2023</v>
       </c>
       <c r="I330" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M330">
         <v>16</v>
@@ -28302,7 +28302,7 @@
         <v>117</v>
       </c>
       <c r="R330" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T330">
         <v>2140.054932</v>
@@ -28311,7 +28311,7 @@
         <v>2140.054932</v>
       </c>
       <c r="AB330" t="s">
-        <v>1243</v>
+        <v>1207</v>
       </c>
       <c r="AE330">
         <v>230942</v>
@@ -28320,10 +28320,10 @@
         <v>54</v>
       </c>
       <c r="AO330" t="s">
-        <v>1244</v>
+        <v>1208</v>
       </c>
       <c r="AP330" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ330">
         <v>575</v>
@@ -28331,10 +28331,10 @@
     </row>
     <row r="331" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1245</v>
+        <v>1209</v>
       </c>
       <c r="B331" t="s">
-        <v>1246</v>
+        <v>1210</v>
       </c>
       <c r="C331" t="s">
         <v>45</v>
@@ -28349,31 +28349,31 @@
         <v>340</v>
       </c>
       <c r="G331" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H331">
         <v>2023</v>
       </c>
       <c r="I331" t="s">
-        <v>1223</v>
+        <v>1187</v>
       </c>
       <c r="M331">
         <v>16</v>
       </c>
       <c r="R331" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="AB331" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH331" t="s">
         <v>54</v>
       </c>
       <c r="AO331" t="s">
-        <v>1248</v>
+        <v>1212</v>
       </c>
       <c r="AP331" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ331">
         <v>575</v>
@@ -28381,10 +28381,10 @@
     </row>
     <row r="332" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1249</v>
+        <v>1213</v>
       </c>
       <c r="B332" t="s">
-        <v>1250</v>
+        <v>1214</v>
       </c>
       <c r="C332" t="s">
         <v>45</v>
@@ -28399,13 +28399,13 @@
         <v>340</v>
       </c>
       <c r="G332" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H332">
         <v>2023</v>
       </c>
       <c r="I332" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M332">
         <v>18</v>
@@ -28414,7 +28414,7 @@
         <v>51</v>
       </c>
       <c r="R332" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T332">
         <v>241.61999510000001</v>
@@ -28426,7 +28426,7 @@
         <v>241.61999510000001</v>
       </c>
       <c r="AB332" t="s">
-        <v>1251</v>
+        <v>1215</v>
       </c>
       <c r="AE332">
         <v>174650</v>
@@ -28435,10 +28435,10 @@
         <v>54</v>
       </c>
       <c r="AO332" t="s">
-        <v>1252</v>
+        <v>1216</v>
       </c>
       <c r="AP332" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ332">
         <v>575</v>
@@ -28446,10 +28446,10 @@
     </row>
     <row r="333" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1253</v>
+        <v>1217</v>
       </c>
       <c r="B333" t="s">
-        <v>1254</v>
+        <v>1218</v>
       </c>
       <c r="C333" t="s">
         <v>45</v>
@@ -28464,13 +28464,13 @@
         <v>340</v>
       </c>
       <c r="G333" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H333">
         <v>2023</v>
       </c>
       <c r="I333" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M333">
         <v>18</v>
@@ -28479,7 +28479,7 @@
         <v>117</v>
       </c>
       <c r="R333" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T333">
         <v>2009.69397</v>
@@ -28488,7 +28488,7 @@
         <v>2009.69397</v>
       </c>
       <c r="AB333" t="s">
-        <v>1255</v>
+        <v>1219</v>
       </c>
       <c r="AE333">
         <v>220231</v>
@@ -28497,10 +28497,10 @@
         <v>54</v>
       </c>
       <c r="AO333" t="s">
-        <v>1256</v>
+        <v>1220</v>
       </c>
       <c r="AP333" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ333">
         <v>575</v>
@@ -28508,10 +28508,10 @@
     </row>
     <row r="334" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1257</v>
+        <v>1221</v>
       </c>
       <c r="B334" t="s">
-        <v>1258</v>
+        <v>1222</v>
       </c>
       <c r="C334" t="s">
         <v>45</v>
@@ -28526,13 +28526,13 @@
         <v>340</v>
       </c>
       <c r="G334" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H334">
         <v>2023</v>
       </c>
       <c r="I334" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M334">
         <v>18</v>
@@ -28541,7 +28541,7 @@
         <v>117</v>
       </c>
       <c r="R334" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T334">
         <v>1965.5169679999999</v>
@@ -28553,7 +28553,7 @@
         <v>1965.5169679999999</v>
       </c>
       <c r="AB334" t="s">
-        <v>1259</v>
+        <v>1223</v>
       </c>
       <c r="AE334">
         <v>232748</v>
@@ -28562,10 +28562,10 @@
         <v>54</v>
       </c>
       <c r="AO334" t="s">
-        <v>1260</v>
+        <v>1224</v>
       </c>
       <c r="AP334" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ334">
         <v>575</v>
@@ -28573,10 +28573,10 @@
     </row>
     <row r="335" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1261</v>
+        <v>1225</v>
       </c>
       <c r="B335" t="s">
-        <v>1262</v>
+        <v>1226</v>
       </c>
       <c r="C335" t="s">
         <v>45</v>
@@ -28591,13 +28591,13 @@
         <v>340</v>
       </c>
       <c r="G335" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H335">
         <v>2023</v>
       </c>
       <c r="I335" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M335">
         <v>19</v>
@@ -28606,7 +28606,7 @@
         <v>51</v>
       </c>
       <c r="R335" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T335">
         <v>903.14202880000005</v>
@@ -28615,7 +28615,7 @@
         <v>903.14202880000005</v>
       </c>
       <c r="AB335" t="s">
-        <v>1208</v>
+        <v>1172</v>
       </c>
       <c r="AE335">
         <v>3915</v>
@@ -28624,10 +28624,10 @@
         <v>54</v>
       </c>
       <c r="AO335" t="s">
-        <v>1263</v>
+        <v>1227</v>
       </c>
       <c r="AP335" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ335">
         <v>575</v>
@@ -28635,10 +28635,10 @@
     </row>
     <row r="336" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1264</v>
+        <v>1228</v>
       </c>
       <c r="B336" t="s">
-        <v>1265</v>
+        <v>1229</v>
       </c>
       <c r="C336" t="s">
         <v>45</v>
@@ -28653,13 +28653,13 @@
         <v>340</v>
       </c>
       <c r="G336" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H336">
         <v>2023</v>
       </c>
       <c r="I336" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M336">
         <v>19</v>
@@ -28668,7 +28668,7 @@
         <v>51</v>
       </c>
       <c r="R336" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T336">
         <v>700.69000240000003</v>
@@ -28677,7 +28677,7 @@
         <v>700.69000240000003</v>
       </c>
       <c r="AB336" t="s">
-        <v>1266</v>
+        <v>1230</v>
       </c>
       <c r="AE336">
         <v>10634</v>
@@ -28686,10 +28686,10 @@
         <v>54</v>
       </c>
       <c r="AO336" t="s">
-        <v>1267</v>
+        <v>1231</v>
       </c>
       <c r="AP336" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ336">
         <v>575</v>
@@ -28697,10 +28697,10 @@
     </row>
     <row r="337" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1268</v>
+        <v>1232</v>
       </c>
       <c r="B337" t="s">
-        <v>1269</v>
+        <v>1233</v>
       </c>
       <c r="C337" t="s">
         <v>45</v>
@@ -28715,31 +28715,31 @@
         <v>340</v>
       </c>
       <c r="G337" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H337">
         <v>2023</v>
       </c>
       <c r="I337" t="s">
-        <v>1223</v>
+        <v>1187</v>
       </c>
       <c r="M337">
         <v>18</v>
       </c>
       <c r="R337" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="AB337" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH337" t="s">
         <v>54</v>
       </c>
       <c r="AO337" t="s">
-        <v>1270</v>
+        <v>1234</v>
       </c>
       <c r="AP337" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ337">
         <v>575</v>
@@ -28747,10 +28747,10 @@
     </row>
     <row r="338" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1271</v>
+        <v>1235</v>
       </c>
       <c r="B338" t="s">
-        <v>1272</v>
+        <v>1236</v>
       </c>
       <c r="C338" t="s">
         <v>45</v>
@@ -28765,13 +28765,13 @@
         <v>340</v>
       </c>
       <c r="G338" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H338">
         <v>2023</v>
       </c>
       <c r="I338" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M338">
         <v>19</v>
@@ -28780,7 +28780,7 @@
         <v>51</v>
       </c>
       <c r="R338" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T338">
         <v>251.2810059</v>
@@ -28801,10 +28801,10 @@
         <v>54</v>
       </c>
       <c r="AO338" t="s">
-        <v>1273</v>
+        <v>1237</v>
       </c>
       <c r="AP338" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ338">
         <v>575</v>
@@ -28812,10 +28812,10 @@
     </row>
     <row r="339" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1274</v>
+        <v>1238</v>
       </c>
       <c r="B339" t="s">
-        <v>1275</v>
+        <v>1239</v>
       </c>
       <c r="C339" t="s">
         <v>45</v>
@@ -28830,13 +28830,13 @@
         <v>340</v>
       </c>
       <c r="G339" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H339">
         <v>2023</v>
       </c>
       <c r="I339" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M339">
         <v>19</v>
@@ -28848,7 +28848,7 @@
         <v>117</v>
       </c>
       <c r="R339" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T339">
         <v>2802.0859380000002</v>
@@ -28857,7 +28857,7 @@
         <v>2802.0859380000002</v>
       </c>
       <c r="AB339" t="s">
-        <v>1276</v>
+        <v>1240</v>
       </c>
       <c r="AE339">
         <v>192833</v>
@@ -28866,10 +28866,10 @@
         <v>54</v>
       </c>
       <c r="AO339" t="s">
-        <v>1277</v>
+        <v>1241</v>
       </c>
       <c r="AP339" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ339">
         <v>575</v>
@@ -28877,10 +28877,10 @@
     </row>
     <row r="340" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1278</v>
+        <v>1242</v>
       </c>
       <c r="B340" t="s">
-        <v>1279</v>
+        <v>1243</v>
       </c>
       <c r="C340" t="s">
         <v>45</v>
@@ -28895,13 +28895,13 @@
         <v>340</v>
       </c>
       <c r="G340" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H340">
         <v>2023</v>
       </c>
       <c r="I340" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M340">
         <v>19</v>
@@ -28910,7 +28910,7 @@
         <v>117</v>
       </c>
       <c r="R340" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T340">
         <v>2766.173096</v>
@@ -28922,7 +28922,7 @@
         <v>2766.173096</v>
       </c>
       <c r="AB340" t="s">
-        <v>1280</v>
+        <v>1244</v>
       </c>
       <c r="AE340">
         <v>214904</v>
@@ -28931,10 +28931,10 @@
         <v>54</v>
       </c>
       <c r="AO340" t="s">
-        <v>1281</v>
+        <v>1245</v>
       </c>
       <c r="AP340" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ340">
         <v>575</v>
@@ -28942,10 +28942,10 @@
     </row>
     <row r="341" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1282</v>
+        <v>1246</v>
       </c>
       <c r="B341" t="s">
-        <v>1283</v>
+        <v>1247</v>
       </c>
       <c r="C341" t="s">
         <v>45</v>
@@ -28960,13 +28960,13 @@
         <v>340</v>
       </c>
       <c r="G341" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H341">
         <v>2023</v>
       </c>
       <c r="I341" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M341">
         <v>19</v>
@@ -28975,7 +28975,7 @@
         <v>117</v>
       </c>
       <c r="R341" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T341">
         <v>2743.531982</v>
@@ -28990,10 +28990,10 @@
         <v>54</v>
       </c>
       <c r="AO341" t="s">
-        <v>1284</v>
+        <v>1248</v>
       </c>
       <c r="AP341" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ341">
         <v>575</v>
@@ -29001,10 +29001,10 @@
     </row>
     <row r="342" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1285</v>
+        <v>1249</v>
       </c>
       <c r="B342" t="s">
-        <v>1286</v>
+        <v>1250</v>
       </c>
       <c r="C342" t="s">
         <v>45</v>
@@ -29019,31 +29019,31 @@
         <v>340</v>
       </c>
       <c r="G342" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H342">
         <v>2023</v>
       </c>
       <c r="I342" t="s">
-        <v>1223</v>
+        <v>1187</v>
       </c>
       <c r="M342">
         <v>19</v>
       </c>
       <c r="R342" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="AB342" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH342" t="s">
         <v>54</v>
       </c>
       <c r="AO342" t="s">
-        <v>1287</v>
+        <v>1251</v>
       </c>
       <c r="AP342" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ342">
         <v>575</v>
@@ -29051,10 +29051,10 @@
     </row>
     <row r="343" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1288</v>
+        <v>1252</v>
       </c>
       <c r="B343" t="s">
-        <v>1289</v>
+        <v>1253</v>
       </c>
       <c r="C343" t="s">
         <v>45</v>
@@ -29069,13 +29069,13 @@
         <v>340</v>
       </c>
       <c r="G343" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H343">
         <v>2023</v>
       </c>
       <c r="I343" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M343">
         <v>21</v>
@@ -29084,7 +29084,7 @@
         <v>51</v>
       </c>
       <c r="R343" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T343">
         <v>281.61801150000002</v>
@@ -29105,10 +29105,10 @@
         <v>54</v>
       </c>
       <c r="AO343" t="s">
-        <v>1290</v>
+        <v>1254</v>
       </c>
       <c r="AP343" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ343">
         <v>575</v>
@@ -29116,10 +29116,10 @@
     </row>
     <row r="344" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1291</v>
+        <v>1255</v>
       </c>
       <c r="B344" t="s">
-        <v>1292</v>
+        <v>1256</v>
       </c>
       <c r="C344" t="s">
         <v>45</v>
@@ -29134,31 +29134,31 @@
         <v>340</v>
       </c>
       <c r="G344" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H344">
         <v>2023</v>
       </c>
       <c r="I344" t="s">
-        <v>1223</v>
+        <v>1187</v>
       </c>
       <c r="M344">
         <v>21</v>
       </c>
       <c r="R344" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="AB344" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH344" t="s">
         <v>54</v>
       </c>
       <c r="AO344" t="s">
-        <v>1293</v>
+        <v>1257</v>
       </c>
       <c r="AP344" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ344">
         <v>575</v>
@@ -29166,10 +29166,10 @@
     </row>
     <row r="345" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1294</v>
+        <v>1258</v>
       </c>
       <c r="B345" t="s">
-        <v>1295</v>
+        <v>1259</v>
       </c>
       <c r="C345" t="s">
         <v>45</v>
@@ -29184,13 +29184,13 @@
         <v>340</v>
       </c>
       <c r="G345" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H345">
         <v>2023</v>
       </c>
       <c r="I345" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M345">
         <v>23</v>
@@ -29199,7 +29199,7 @@
         <v>388</v>
       </c>
       <c r="R345" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T345">
         <v>180.85400390000001</v>
@@ -29220,10 +29220,10 @@
         <v>54</v>
       </c>
       <c r="AO345" t="s">
-        <v>1296</v>
+        <v>1260</v>
       </c>
       <c r="AP345" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ345">
         <v>575</v>
@@ -29231,10 +29231,10 @@
     </row>
     <row r="346" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1297</v>
+        <v>1261</v>
       </c>
       <c r="B346" t="s">
-        <v>1298</v>
+        <v>1262</v>
       </c>
       <c r="C346" t="s">
         <v>45</v>
@@ -29249,13 +29249,13 @@
         <v>340</v>
       </c>
       <c r="G346" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H346">
         <v>2023</v>
       </c>
       <c r="I346" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M346">
         <v>23</v>
@@ -29264,7 +29264,7 @@
         <v>51</v>
       </c>
       <c r="R346" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T346">
         <v>754.0900269</v>
@@ -29276,7 +29276,7 @@
         <v>754.0900269</v>
       </c>
       <c r="AB346" t="s">
-        <v>1299</v>
+        <v>1263</v>
       </c>
       <c r="AE346">
         <v>172935</v>
@@ -29285,10 +29285,10 @@
         <v>54</v>
       </c>
       <c r="AO346" t="s">
-        <v>1300</v>
+        <v>1264</v>
       </c>
       <c r="AP346" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ346">
         <v>575</v>
@@ -29296,10 +29296,10 @@
     </row>
     <row r="347" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1301</v>
+        <v>1265</v>
       </c>
       <c r="B347" t="s">
-        <v>1302</v>
+        <v>1266</v>
       </c>
       <c r="C347" t="s">
         <v>45</v>
@@ -29314,13 +29314,13 @@
         <v>340</v>
       </c>
       <c r="G347" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H347">
         <v>2023</v>
       </c>
       <c r="I347" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M347">
         <v>23</v>
@@ -29329,7 +29329,7 @@
         <v>51</v>
       </c>
       <c r="R347" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T347">
         <v>668.13000490000002</v>
@@ -29344,10 +29344,10 @@
         <v>54</v>
       </c>
       <c r="AO347" t="s">
-        <v>1303</v>
+        <v>1267</v>
       </c>
       <c r="AP347" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ347">
         <v>575</v>
@@ -29355,10 +29355,10 @@
     </row>
     <row r="348" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>1304</v>
+        <v>1268</v>
       </c>
       <c r="B348" t="s">
-        <v>1305</v>
+        <v>1269</v>
       </c>
       <c r="C348" t="s">
         <v>45</v>
@@ -29373,13 +29373,13 @@
         <v>340</v>
       </c>
       <c r="G348" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H348">
         <v>2023</v>
       </c>
       <c r="I348" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M348">
         <v>23</v>
@@ -29388,7 +29388,7 @@
         <v>51</v>
       </c>
       <c r="R348" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T348">
         <v>595.27301030000001</v>
@@ -29400,7 +29400,7 @@
         <v>595.27301030000001</v>
       </c>
       <c r="AB348" t="s">
-        <v>1306</v>
+        <v>1270</v>
       </c>
       <c r="AE348">
         <v>230704</v>
@@ -29409,10 +29409,10 @@
         <v>54</v>
       </c>
       <c r="AO348" t="s">
-        <v>1307</v>
+        <v>1271</v>
       </c>
       <c r="AP348" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ348">
         <v>575</v>
@@ -29420,10 +29420,10 @@
     </row>
     <row r="349" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>1308</v>
+        <v>1272</v>
       </c>
       <c r="B349" t="s">
-        <v>1309</v>
+        <v>1273</v>
       </c>
       <c r="C349" t="s">
         <v>45</v>
@@ -29438,13 +29438,13 @@
         <v>340</v>
       </c>
       <c r="G349" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H349">
         <v>2023</v>
       </c>
       <c r="I349" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M349">
         <v>24</v>
@@ -29453,7 +29453,7 @@
         <v>51</v>
       </c>
       <c r="R349" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T349">
         <v>531.10498050000001</v>
@@ -29462,7 +29462,7 @@
         <v>531.10498050000001</v>
       </c>
       <c r="AB349" t="s">
-        <v>1310</v>
+        <v>1274</v>
       </c>
       <c r="AE349">
         <v>803</v>
@@ -29471,10 +29471,10 @@
         <v>54</v>
       </c>
       <c r="AO349" t="s">
-        <v>1311</v>
+        <v>1275</v>
       </c>
       <c r="AP349" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ349">
         <v>575</v>
@@ -29482,10 +29482,10 @@
     </row>
     <row r="350" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>1312</v>
+        <v>1276</v>
       </c>
       <c r="B350" t="s">
-        <v>1313</v>
+        <v>1277</v>
       </c>
       <c r="C350" t="s">
         <v>45</v>
@@ -29500,31 +29500,31 @@
         <v>340</v>
       </c>
       <c r="G350" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H350">
         <v>2023</v>
       </c>
       <c r="I350" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M350">
         <v>23</v>
       </c>
       <c r="R350" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="AB350" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH350" t="s">
         <v>54</v>
       </c>
       <c r="AO350" t="s">
-        <v>1314</v>
+        <v>1278</v>
       </c>
       <c r="AP350" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ350">
         <v>575</v>
@@ -29532,10 +29532,10 @@
     </row>
     <row r="351" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>1315</v>
+        <v>1279</v>
       </c>
       <c r="B351" t="s">
-        <v>1316</v>
+        <v>1280</v>
       </c>
       <c r="C351" t="s">
         <v>45</v>
@@ -29550,13 +29550,13 @@
         <v>340</v>
       </c>
       <c r="G351" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H351">
         <v>2023</v>
       </c>
       <c r="I351" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M351">
         <v>24</v>
@@ -29565,7 +29565,7 @@
         <v>51</v>
       </c>
       <c r="R351" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T351">
         <v>200.0559998</v>
@@ -29586,10 +29586,10 @@
         <v>54</v>
       </c>
       <c r="AO351" t="s">
-        <v>1317</v>
+        <v>1281</v>
       </c>
       <c r="AP351" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ351">
         <v>575</v>
@@ -29597,10 +29597,10 @@
     </row>
     <row r="352" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>1318</v>
+        <v>1282</v>
       </c>
       <c r="B352" t="s">
-        <v>1319</v>
+        <v>1283</v>
       </c>
       <c r="C352" t="s">
         <v>45</v>
@@ -29615,13 +29615,13 @@
         <v>340</v>
       </c>
       <c r="G352" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H352">
         <v>2023</v>
       </c>
       <c r="I352" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M352">
         <v>24</v>
@@ -29630,19 +29630,19 @@
         <v>117</v>
       </c>
       <c r="R352" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T352">
         <v>1425.3260499999999</v>
       </c>
       <c r="W352" t="s">
-        <v>1320</v>
+        <v>1284</v>
       </c>
       <c r="X352">
         <v>1425.3260499999999</v>
       </c>
       <c r="AB352" t="s">
-        <v>1321</v>
+        <v>1285</v>
       </c>
       <c r="AE352">
         <v>173503</v>
@@ -29651,10 +29651,10 @@
         <v>54</v>
       </c>
       <c r="AO352" t="s">
-        <v>1322</v>
+        <v>1286</v>
       </c>
       <c r="AP352" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ352">
         <v>575</v>
@@ -29662,10 +29662,10 @@
     </row>
     <row r="353" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>1323</v>
+        <v>1287</v>
       </c>
       <c r="B353" t="s">
-        <v>1324</v>
+        <v>1288</v>
       </c>
       <c r="C353" t="s">
         <v>45</v>
@@ -29680,13 +29680,13 @@
         <v>340</v>
       </c>
       <c r="G353" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H353">
         <v>2023</v>
       </c>
       <c r="I353" t="s">
-        <v>1201</v>
+        <v>1165</v>
       </c>
       <c r="M353">
         <v>24</v>
@@ -29695,19 +29695,19 @@
         <v>117</v>
       </c>
       <c r="R353" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="T353">
         <v>1428.6669919999999</v>
       </c>
       <c r="W353" t="s">
-        <v>1320</v>
+        <v>1284</v>
       </c>
       <c r="X353">
         <v>1428.6669919999999</v>
       </c>
       <c r="AB353" t="s">
-        <v>1325</v>
+        <v>1289</v>
       </c>
       <c r="AE353">
         <v>205716</v>
@@ -29716,10 +29716,10 @@
         <v>54</v>
       </c>
       <c r="AO353" t="s">
-        <v>1326</v>
+        <v>1290</v>
       </c>
       <c r="AP353" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ353">
         <v>575</v>
@@ -29727,10 +29727,10 @@
     </row>
     <row r="354" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>1327</v>
+        <v>1291</v>
       </c>
       <c r="B354" t="s">
-        <v>1328</v>
+        <v>1292</v>
       </c>
       <c r="C354" t="s">
         <v>45</v>
@@ -29745,31 +29745,31 @@
         <v>340</v>
       </c>
       <c r="G354" t="s">
-        <v>1200</v>
+        <v>1164</v>
       </c>
       <c r="H354">
         <v>2023</v>
       </c>
       <c r="I354" t="s">
-        <v>1223</v>
+        <v>1187</v>
       </c>
       <c r="M354">
         <v>24</v>
       </c>
       <c r="R354" t="s">
-        <v>1202</v>
+        <v>1166</v>
       </c>
       <c r="AB354" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH354" t="s">
         <v>54</v>
       </c>
       <c r="AO354" t="s">
-        <v>1329</v>
+        <v>1293</v>
       </c>
       <c r="AP354" t="s">
-        <v>1205</v>
+        <v>1169</v>
       </c>
       <c r="AQ354">
         <v>575</v>
@@ -29777,10 +29777,10 @@
     </row>
     <row r="355" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>1330</v>
+        <v>1294</v>
       </c>
       <c r="B355" t="s">
-        <v>1331</v>
+        <v>1295</v>
       </c>
       <c r="C355" t="s">
         <v>45</v>
@@ -29795,7 +29795,7 @@
         <v>340</v>
       </c>
       <c r="G355" t="s">
-        <v>1332</v>
+        <v>1296</v>
       </c>
       <c r="H355">
         <v>2023</v>
@@ -29816,7 +29816,7 @@
         <v>8</v>
       </c>
       <c r="AB355" t="s">
-        <v>1333</v>
+        <v>1297</v>
       </c>
       <c r="AE355" s="1">
         <v>3.5416666666666666E-2</v>
@@ -29825,10 +29825,10 @@
         <v>54</v>
       </c>
       <c r="AO355" t="s">
-        <v>1334</v>
+        <v>1298</v>
       </c>
       <c r="AP355" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ355">
         <v>575</v>
@@ -29836,10 +29836,10 @@
     </row>
     <row r="356" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>1336</v>
+        <v>1300</v>
       </c>
       <c r="B356" t="s">
-        <v>1337</v>
+        <v>1301</v>
       </c>
       <c r="C356" t="s">
         <v>45</v>
@@ -29854,7 +29854,7 @@
         <v>340</v>
       </c>
       <c r="G356" t="s">
-        <v>1332</v>
+        <v>1296</v>
       </c>
       <c r="H356">
         <v>2023</v>
@@ -29884,7 +29884,7 @@
         <v>8</v>
       </c>
       <c r="AB356" t="s">
-        <v>1338</v>
+        <v>1302</v>
       </c>
       <c r="AE356" s="1">
         <v>1.238425925925926E-2</v>
@@ -29893,10 +29893,10 @@
         <v>54</v>
       </c>
       <c r="AO356" t="s">
-        <v>1339</v>
+        <v>1303</v>
       </c>
       <c r="AP356" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ356">
         <v>575</v>
@@ -29904,10 +29904,10 @@
     </row>
     <row r="357" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>1340</v>
+        <v>1304</v>
       </c>
       <c r="B357" t="s">
-        <v>1341</v>
+        <v>1305</v>
       </c>
       <c r="C357" t="s">
         <v>45</v>
@@ -29922,7 +29922,7 @@
         <v>340</v>
       </c>
       <c r="G357" t="s">
-        <v>1332</v>
+        <v>1296</v>
       </c>
       <c r="H357">
         <v>2023</v>
@@ -29952,7 +29952,7 @@
         <v>8</v>
       </c>
       <c r="AB357" t="s">
-        <v>1342</v>
+        <v>1306</v>
       </c>
       <c r="AE357" s="1">
         <v>2.9166666666666667E-2</v>
@@ -29961,10 +29961,10 @@
         <v>54</v>
       </c>
       <c r="AO357" t="s">
-        <v>1343</v>
+        <v>1307</v>
       </c>
       <c r="AP357" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ357">
         <v>575</v>
@@ -29972,10 +29972,10 @@
     </row>
     <row r="358" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>1344</v>
+        <v>1308</v>
       </c>
       <c r="B358" t="s">
-        <v>1345</v>
+        <v>1309</v>
       </c>
       <c r="C358" t="s">
         <v>45</v>
@@ -29990,7 +29990,7 @@
         <v>340</v>
       </c>
       <c r="G358" t="s">
-        <v>1332</v>
+        <v>1296</v>
       </c>
       <c r="H358">
         <v>2023</v>
@@ -30020,7 +30020,7 @@
         <v>8</v>
       </c>
       <c r="AB358" t="s">
-        <v>1346</v>
+        <v>1310</v>
       </c>
       <c r="AE358" s="1">
         <v>4.2013888888888891E-3</v>
@@ -30029,10 +30029,10 @@
         <v>54</v>
       </c>
       <c r="AO358" t="s">
-        <v>1347</v>
+        <v>1311</v>
       </c>
       <c r="AP358" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ358">
         <v>575</v>
@@ -30040,10 +30040,10 @@
     </row>
     <row r="359" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>1348</v>
+        <v>1312</v>
       </c>
       <c r="B359" t="s">
-        <v>1349</v>
+        <v>1313</v>
       </c>
       <c r="C359" t="s">
         <v>45</v>
@@ -30058,7 +30058,7 @@
         <v>340</v>
       </c>
       <c r="G359" t="s">
-        <v>1332</v>
+        <v>1296</v>
       </c>
       <c r="H359">
         <v>2023</v>
@@ -30088,7 +30088,7 @@
         <v>8</v>
       </c>
       <c r="AB359" t="s">
-        <v>1350</v>
+        <v>1314</v>
       </c>
       <c r="AE359" s="1">
         <v>1.3414351851851853E-2</v>
@@ -30097,10 +30097,10 @@
         <v>54</v>
       </c>
       <c r="AO359" t="s">
-        <v>1351</v>
+        <v>1315</v>
       </c>
       <c r="AP359" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ359">
         <v>575</v>
@@ -30108,10 +30108,10 @@
     </row>
     <row r="360" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>1352</v>
+        <v>1316</v>
       </c>
       <c r="B360" t="s">
-        <v>1353</v>
+        <v>1317</v>
       </c>
       <c r="C360" t="s">
         <v>45</v>
@@ -30126,13 +30126,13 @@
         <v>340</v>
       </c>
       <c r="G360" t="s">
-        <v>1332</v>
+        <v>1296</v>
       </c>
       <c r="H360">
         <v>2023</v>
       </c>
       <c r="I360" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="J360" t="s">
         <v>49</v>
@@ -30147,16 +30147,16 @@
         <v>8</v>
       </c>
       <c r="AB360" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH360" t="s">
         <v>78</v>
       </c>
       <c r="AO360" t="s">
-        <v>1355</v>
+        <v>1319</v>
       </c>
       <c r="AP360" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ360">
         <v>575</v>
@@ -30164,10 +30164,10 @@
     </row>
     <row r="361" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>1356</v>
+        <v>1320</v>
       </c>
       <c r="B361" t="s">
-        <v>1357</v>
+        <v>1321</v>
       </c>
       <c r="C361" t="s">
         <v>45</v>
@@ -30182,7 +30182,7 @@
         <v>340</v>
       </c>
       <c r="G361" t="s">
-        <v>1358</v>
+        <v>1322</v>
       </c>
       <c r="H361">
         <v>2023</v>
@@ -30212,7 +30212,7 @@
         <v>8</v>
       </c>
       <c r="AB361" t="s">
-        <v>1359</v>
+        <v>1323</v>
       </c>
       <c r="AE361" s="1">
         <v>6.9791666666666665E-3</v>
@@ -30221,10 +30221,10 @@
         <v>54</v>
       </c>
       <c r="AO361" t="s">
-        <v>1360</v>
+        <v>1324</v>
       </c>
       <c r="AP361" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ361">
         <v>575</v>
@@ -30232,10 +30232,10 @@
     </row>
     <row r="362" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>1361</v>
+        <v>1325</v>
       </c>
       <c r="B362" t="s">
-        <v>1362</v>
+        <v>1326</v>
       </c>
       <c r="C362" t="s">
         <v>45</v>
@@ -30250,7 +30250,7 @@
         <v>340</v>
       </c>
       <c r="G362" t="s">
-        <v>1358</v>
+        <v>1322</v>
       </c>
       <c r="H362">
         <v>2023</v>
@@ -30280,7 +30280,7 @@
         <v>8</v>
       </c>
       <c r="AB362" t="s">
-        <v>1363</v>
+        <v>1327</v>
       </c>
       <c r="AE362" s="1">
         <v>7.3148148148148148E-3</v>
@@ -30289,10 +30289,10 @@
         <v>54</v>
       </c>
       <c r="AO362" t="s">
-        <v>1364</v>
+        <v>1328</v>
       </c>
       <c r="AP362" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ362">
         <v>575</v>
@@ -30300,10 +30300,10 @@
     </row>
     <row r="363" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>1365</v>
+        <v>1329</v>
       </c>
       <c r="B363" t="s">
-        <v>1366</v>
+        <v>1330</v>
       </c>
       <c r="C363" t="s">
         <v>45</v>
@@ -30318,7 +30318,7 @@
         <v>340</v>
       </c>
       <c r="G363" t="s">
-        <v>1358</v>
+        <v>1322</v>
       </c>
       <c r="H363">
         <v>2023</v>
@@ -30348,7 +30348,7 @@
         <v>8</v>
       </c>
       <c r="AB363" t="s">
-        <v>1367</v>
+        <v>1331</v>
       </c>
       <c r="AE363" s="1">
         <v>2.8356481481481483E-3</v>
@@ -30357,10 +30357,10 @@
         <v>54</v>
       </c>
       <c r="AO363" t="s">
-        <v>1368</v>
+        <v>1332</v>
       </c>
       <c r="AP363" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ363">
         <v>575</v>
@@ -30368,10 +30368,10 @@
     </row>
     <row r="364" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>1369</v>
+        <v>1333</v>
       </c>
       <c r="B364" t="s">
-        <v>1370</v>
+        <v>1334</v>
       </c>
       <c r="C364" t="s">
         <v>45</v>
@@ -30386,7 +30386,7 @@
         <v>340</v>
       </c>
       <c r="G364" t="s">
-        <v>1358</v>
+        <v>1322</v>
       </c>
       <c r="H364">
         <v>2023</v>
@@ -30416,7 +30416,7 @@
         <v>8</v>
       </c>
       <c r="AB364" t="s">
-        <v>1371</v>
+        <v>1335</v>
       </c>
       <c r="AE364" s="1">
         <v>3.3796296296296297E-2</v>
@@ -30425,10 +30425,10 @@
         <v>54</v>
       </c>
       <c r="AO364" t="s">
-        <v>1372</v>
+        <v>1336</v>
       </c>
       <c r="AP364" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ364">
         <v>575</v>
@@ -30436,10 +30436,10 @@
     </row>
     <row r="365" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>1373</v>
+        <v>1337</v>
       </c>
       <c r="B365" t="s">
-        <v>1374</v>
+        <v>1338</v>
       </c>
       <c r="C365" t="s">
         <v>45</v>
@@ -30454,7 +30454,7 @@
         <v>340</v>
       </c>
       <c r="G365" t="s">
-        <v>1358</v>
+        <v>1322</v>
       </c>
       <c r="H365">
         <v>2023</v>
@@ -30484,7 +30484,7 @@
         <v>8</v>
       </c>
       <c r="AB365" t="s">
-        <v>1375</v>
+        <v>1339</v>
       </c>
       <c r="AE365" s="1">
         <v>1.818287037037037E-2</v>
@@ -30493,10 +30493,10 @@
         <v>54</v>
       </c>
       <c r="AO365" t="s">
-        <v>1376</v>
+        <v>1340</v>
       </c>
       <c r="AP365" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ365">
         <v>575</v>
@@ -30504,10 +30504,10 @@
     </row>
     <row r="366" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>1377</v>
+        <v>1341</v>
       </c>
       <c r="B366" t="s">
-        <v>1378</v>
+        <v>1342</v>
       </c>
       <c r="C366" t="s">
         <v>45</v>
@@ -30522,13 +30522,13 @@
         <v>340</v>
       </c>
       <c r="G366" t="s">
-        <v>1358</v>
+        <v>1322</v>
       </c>
       <c r="H366">
         <v>2023</v>
       </c>
       <c r="I366" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="J366" t="s">
         <v>49</v>
@@ -30543,16 +30543,16 @@
         <v>8</v>
       </c>
       <c r="AB366" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH366" t="s">
         <v>78</v>
       </c>
       <c r="AO366" t="s">
-        <v>1379</v>
+        <v>1343</v>
       </c>
       <c r="AP366" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ366">
         <v>575</v>
@@ -30560,10 +30560,10 @@
     </row>
     <row r="367" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>1380</v>
+        <v>1344</v>
       </c>
       <c r="B367" t="s">
-        <v>1381</v>
+        <v>1345</v>
       </c>
       <c r="C367" t="s">
         <v>45</v>
@@ -30578,7 +30578,7 @@
         <v>340</v>
       </c>
       <c r="G367" t="s">
-        <v>1382</v>
+        <v>1346</v>
       </c>
       <c r="H367">
         <v>2023</v>
@@ -30608,7 +30608,7 @@
         <v>8</v>
       </c>
       <c r="AB367" t="s">
-        <v>1383</v>
+        <v>1347</v>
       </c>
       <c r="AE367" s="1">
         <v>1.0601851851851852E-2</v>
@@ -30617,10 +30617,10 @@
         <v>54</v>
       </c>
       <c r="AO367" t="s">
-        <v>1384</v>
+        <v>1348</v>
       </c>
       <c r="AP367" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ367">
         <v>575</v>
@@ -30628,10 +30628,10 @@
     </row>
     <row r="368" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>1385</v>
+        <v>1349</v>
       </c>
       <c r="B368" t="s">
-        <v>1386</v>
+        <v>1350</v>
       </c>
       <c r="C368" t="s">
         <v>45</v>
@@ -30646,7 +30646,7 @@
         <v>340</v>
       </c>
       <c r="G368" t="s">
-        <v>1382</v>
+        <v>1346</v>
       </c>
       <c r="H368">
         <v>2023</v>
@@ -30676,7 +30676,7 @@
         <v>8</v>
       </c>
       <c r="AB368" t="s">
-        <v>1387</v>
+        <v>1351</v>
       </c>
       <c r="AE368" s="1">
         <v>3.8645833333333331E-2</v>
@@ -30685,10 +30685,10 @@
         <v>54</v>
       </c>
       <c r="AO368" t="s">
-        <v>1388</v>
+        <v>1352</v>
       </c>
       <c r="AP368" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ368">
         <v>575</v>
@@ -30696,10 +30696,10 @@
     </row>
     <row r="369" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>1389</v>
+        <v>1353</v>
       </c>
       <c r="B369" t="s">
-        <v>1390</v>
+        <v>1354</v>
       </c>
       <c r="C369" t="s">
         <v>45</v>
@@ -30714,7 +30714,7 @@
         <v>340</v>
       </c>
       <c r="G369" t="s">
-        <v>1382</v>
+        <v>1346</v>
       </c>
       <c r="H369">
         <v>2023</v>
@@ -30741,7 +30741,7 @@
         <v>8</v>
       </c>
       <c r="AB369" t="s">
-        <v>1391</v>
+        <v>1355</v>
       </c>
       <c r="AE369" s="1">
         <v>2.6388888888888889E-2</v>
@@ -30750,10 +30750,10 @@
         <v>54</v>
       </c>
       <c r="AO369" t="s">
-        <v>1392</v>
+        <v>1356</v>
       </c>
       <c r="AP369" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ369">
         <v>575</v>
@@ -30761,10 +30761,10 @@
     </row>
     <row r="370" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>1393</v>
+        <v>1357</v>
       </c>
       <c r="B370" t="s">
-        <v>1394</v>
+        <v>1358</v>
       </c>
       <c r="C370" t="s">
         <v>45</v>
@@ -30779,7 +30779,7 @@
         <v>340</v>
       </c>
       <c r="G370" t="s">
-        <v>1382</v>
+        <v>1346</v>
       </c>
       <c r="H370">
         <v>2023</v>
@@ -30806,7 +30806,7 @@
         <v>8</v>
       </c>
       <c r="AB370" t="s">
-        <v>1395</v>
+        <v>1359</v>
       </c>
       <c r="AE370" s="1">
         <v>2.462962962962963E-2</v>
@@ -30815,10 +30815,10 @@
         <v>54</v>
       </c>
       <c r="AO370" t="s">
-        <v>1396</v>
+        <v>1360</v>
       </c>
       <c r="AP370" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ370">
         <v>575</v>
@@ -30826,10 +30826,10 @@
     </row>
     <row r="371" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>1397</v>
+        <v>1361</v>
       </c>
       <c r="B371" t="s">
-        <v>1398</v>
+        <v>1362</v>
       </c>
       <c r="C371" t="s">
         <v>45</v>
@@ -30844,13 +30844,13 @@
         <v>340</v>
       </c>
       <c r="G371" t="s">
-        <v>1382</v>
+        <v>1346</v>
       </c>
       <c r="H371">
         <v>2023</v>
       </c>
       <c r="I371" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="J371" t="s">
         <v>49</v>
@@ -30865,16 +30865,16 @@
         <v>8</v>
       </c>
       <c r="AB371" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH371" t="s">
         <v>78</v>
       </c>
       <c r="AO371" t="s">
-        <v>1399</v>
+        <v>1363</v>
       </c>
       <c r="AP371" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ371">
         <v>575</v>
@@ -30882,10 +30882,10 @@
     </row>
     <row r="372" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>1400</v>
+        <v>1364</v>
       </c>
       <c r="B372" t="s">
-        <v>1401</v>
+        <v>1365</v>
       </c>
       <c r="C372" t="s">
         <v>45</v>
@@ -30900,7 +30900,7 @@
         <v>340</v>
       </c>
       <c r="G372" t="s">
-        <v>1402</v>
+        <v>1366</v>
       </c>
       <c r="H372">
         <v>2023</v>
@@ -30927,7 +30927,7 @@
         <v>8</v>
       </c>
       <c r="AB372" t="s">
-        <v>1403</v>
+        <v>1367</v>
       </c>
       <c r="AE372" s="1">
         <v>3.9918981481481479E-2</v>
@@ -30936,10 +30936,10 @@
         <v>54</v>
       </c>
       <c r="AO372" t="s">
-        <v>1404</v>
+        <v>1368</v>
       </c>
       <c r="AP372" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ372">
         <v>575</v>
@@ -30947,10 +30947,10 @@
     </row>
     <row r="373" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>1405</v>
+        <v>1369</v>
       </c>
       <c r="B373" t="s">
-        <v>1406</v>
+        <v>1370</v>
       </c>
       <c r="C373" t="s">
         <v>45</v>
@@ -30965,7 +30965,7 @@
         <v>340</v>
       </c>
       <c r="G373" t="s">
-        <v>1402</v>
+        <v>1366</v>
       </c>
       <c r="H373">
         <v>2023</v>
@@ -30992,7 +30992,7 @@
         <v>8</v>
       </c>
       <c r="AB373" t="s">
-        <v>1407</v>
+        <v>1371</v>
       </c>
       <c r="AE373" s="1">
         <v>2.101851851851852E-2</v>
@@ -31001,10 +31001,10 @@
         <v>54</v>
       </c>
       <c r="AO373" t="s">
-        <v>1408</v>
+        <v>1372</v>
       </c>
       <c r="AP373" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ373">
         <v>575</v>
@@ -31012,10 +31012,10 @@
     </row>
     <row r="374" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>1409</v>
+        <v>1373</v>
       </c>
       <c r="B374" t="s">
-        <v>1410</v>
+        <v>1374</v>
       </c>
       <c r="C374" t="s">
         <v>45</v>
@@ -31030,7 +31030,7 @@
         <v>340</v>
       </c>
       <c r="G374" t="s">
-        <v>1402</v>
+        <v>1366</v>
       </c>
       <c r="H374">
         <v>2023</v>
@@ -31057,7 +31057,7 @@
         <v>8</v>
       </c>
       <c r="AB374" t="s">
-        <v>1411</v>
+        <v>1375</v>
       </c>
       <c r="AE374" s="1">
         <v>1.1655092592592592E-2</v>
@@ -31066,10 +31066,10 @@
         <v>54</v>
       </c>
       <c r="AO374" t="s">
-        <v>1412</v>
+        <v>1376</v>
       </c>
       <c r="AP374" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ374">
         <v>575</v>
@@ -31077,10 +31077,10 @@
     </row>
     <row r="375" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>1413</v>
+        <v>1377</v>
       </c>
       <c r="B375" t="s">
-        <v>1414</v>
+        <v>1378</v>
       </c>
       <c r="C375" t="s">
         <v>45</v>
@@ -31095,7 +31095,7 @@
         <v>340</v>
       </c>
       <c r="G375" t="s">
-        <v>1402</v>
+        <v>1366</v>
       </c>
       <c r="H375">
         <v>2023</v>
@@ -31122,7 +31122,7 @@
         <v>8</v>
       </c>
       <c r="AB375" t="s">
-        <v>1415</v>
+        <v>1379</v>
       </c>
       <c r="AE375" s="1">
         <v>1.2442129629629629E-2</v>
@@ -31131,10 +31131,10 @@
         <v>54</v>
       </c>
       <c r="AO375" t="s">
-        <v>1416</v>
+        <v>1380</v>
       </c>
       <c r="AP375" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ375">
         <v>575</v>
@@ -31142,10 +31142,10 @@
     </row>
     <row r="376" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>1417</v>
+        <v>1381</v>
       </c>
       <c r="B376" t="s">
-        <v>1418</v>
+        <v>1382</v>
       </c>
       <c r="C376" t="s">
         <v>45</v>
@@ -31160,13 +31160,13 @@
         <v>340</v>
       </c>
       <c r="G376" t="s">
-        <v>1402</v>
+        <v>1366</v>
       </c>
       <c r="H376">
         <v>2023</v>
       </c>
       <c r="I376" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="J376" t="s">
         <v>49</v>
@@ -31178,16 +31178,16 @@
         <v>8</v>
       </c>
       <c r="AB376" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH376" t="s">
         <v>78</v>
       </c>
       <c r="AO376" t="s">
-        <v>1419</v>
+        <v>1383</v>
       </c>
       <c r="AP376" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ376">
         <v>575</v>
@@ -31195,10 +31195,10 @@
     </row>
     <row r="377" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>1420</v>
+        <v>1384</v>
       </c>
       <c r="B377" t="s">
-        <v>1421</v>
+        <v>1385</v>
       </c>
       <c r="C377" t="s">
         <v>45</v>
@@ -31213,7 +31213,7 @@
         <v>340</v>
       </c>
       <c r="G377" t="s">
-        <v>1422</v>
+        <v>1386</v>
       </c>
       <c r="H377">
         <v>2023</v>
@@ -31240,7 +31240,7 @@
         <v>8</v>
       </c>
       <c r="AB377" t="s">
-        <v>1423</v>
+        <v>1387</v>
       </c>
       <c r="AE377" s="1">
         <v>1.4791666666666667E-2</v>
@@ -31249,10 +31249,10 @@
         <v>54</v>
       </c>
       <c r="AO377" t="s">
-        <v>1424</v>
+        <v>1388</v>
       </c>
       <c r="AP377" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ377">
         <v>575</v>
@@ -31260,10 +31260,10 @@
     </row>
     <row r="378" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>1425</v>
+        <v>1389</v>
       </c>
       <c r="B378" t="s">
-        <v>1426</v>
+        <v>1390</v>
       </c>
       <c r="C378" t="s">
         <v>45</v>
@@ -31278,7 +31278,7 @@
         <v>340</v>
       </c>
       <c r="G378" t="s">
-        <v>1422</v>
+        <v>1386</v>
       </c>
       <c r="H378">
         <v>2023</v>
@@ -31305,7 +31305,7 @@
         <v>8</v>
       </c>
       <c r="AB378" t="s">
-        <v>1427</v>
+        <v>1391</v>
       </c>
       <c r="AE378" s="1">
         <v>2.1458333333333333E-2</v>
@@ -31314,10 +31314,10 @@
         <v>54</v>
       </c>
       <c r="AO378" t="s">
-        <v>1428</v>
+        <v>1392</v>
       </c>
       <c r="AP378" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ378">
         <v>575</v>
@@ -31325,10 +31325,10 @@
     </row>
     <row r="379" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1429</v>
+        <v>1393</v>
       </c>
       <c r="B379" t="s">
-        <v>1430</v>
+        <v>1394</v>
       </c>
       <c r="C379" t="s">
         <v>45</v>
@@ -31343,7 +31343,7 @@
         <v>340</v>
       </c>
       <c r="G379" t="s">
-        <v>1422</v>
+        <v>1386</v>
       </c>
       <c r="H379">
         <v>2023</v>
@@ -31370,7 +31370,7 @@
         <v>8</v>
       </c>
       <c r="AB379" t="s">
-        <v>1431</v>
+        <v>1395</v>
       </c>
       <c r="AE379" s="1">
         <v>3.6921296296296299E-2</v>
@@ -31379,10 +31379,10 @@
         <v>54</v>
       </c>
       <c r="AO379" t="s">
-        <v>1432</v>
+        <v>1396</v>
       </c>
       <c r="AP379" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ379">
         <v>575</v>
@@ -31390,10 +31390,10 @@
     </row>
     <row r="380" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>1433</v>
+        <v>1397</v>
       </c>
       <c r="B380" t="s">
-        <v>1434</v>
+        <v>1398</v>
       </c>
       <c r="C380" t="s">
         <v>45</v>
@@ -31408,13 +31408,13 @@
         <v>340</v>
       </c>
       <c r="G380" t="s">
-        <v>1422</v>
+        <v>1386</v>
       </c>
       <c r="H380">
         <v>2023</v>
       </c>
       <c r="I380" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="J380" t="s">
         <v>49</v>
@@ -31426,16 +31426,16 @@
         <v>8</v>
       </c>
       <c r="AB380" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH380" t="s">
         <v>78</v>
       </c>
       <c r="AO380" t="s">
-        <v>1435</v>
+        <v>1399</v>
       </c>
       <c r="AP380" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ380">
         <v>575</v>
@@ -31443,10 +31443,10 @@
     </row>
     <row r="381" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>1436</v>
+        <v>1400</v>
       </c>
       <c r="B381" t="s">
-        <v>1437</v>
+        <v>1401</v>
       </c>
       <c r="C381" t="s">
         <v>45</v>
@@ -31461,7 +31461,7 @@
         <v>340</v>
       </c>
       <c r="G381" t="s">
-        <v>1438</v>
+        <v>1402</v>
       </c>
       <c r="H381">
         <v>2023</v>
@@ -31488,7 +31488,7 @@
         <v>8</v>
       </c>
       <c r="AB381" t="s">
-        <v>1439</v>
+        <v>1403</v>
       </c>
       <c r="AE381">
         <v>173407</v>
@@ -31497,10 +31497,10 @@
         <v>54</v>
       </c>
       <c r="AO381" t="s">
-        <v>1440</v>
+        <v>1404</v>
       </c>
       <c r="AP381" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ381">
         <v>575</v>
@@ -31508,10 +31508,10 @@
     </row>
     <row r="382" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>1441</v>
+        <v>1405</v>
       </c>
       <c r="B382" t="s">
-        <v>1442</v>
+        <v>1406</v>
       </c>
       <c r="C382" t="s">
         <v>45</v>
@@ -31526,7 +31526,7 @@
         <v>340</v>
       </c>
       <c r="G382" t="s">
-        <v>1438</v>
+        <v>1402</v>
       </c>
       <c r="H382">
         <v>2023</v>
@@ -31553,7 +31553,7 @@
         <v>8</v>
       </c>
       <c r="AB382" t="s">
-        <v>1443</v>
+        <v>1407</v>
       </c>
       <c r="AE382">
         <v>231418</v>
@@ -31562,10 +31562,10 @@
         <v>54</v>
       </c>
       <c r="AO382" t="s">
-        <v>1444</v>
+        <v>1408</v>
       </c>
       <c r="AP382" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ382">
         <v>575</v>
@@ -31573,10 +31573,10 @@
     </row>
     <row r="383" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>1445</v>
+        <v>1409</v>
       </c>
       <c r="B383" t="s">
-        <v>1446</v>
+        <v>1410</v>
       </c>
       <c r="C383" t="s">
         <v>45</v>
@@ -31591,7 +31591,7 @@
         <v>340</v>
       </c>
       <c r="G383" t="s">
-        <v>1438</v>
+        <v>1402</v>
       </c>
       <c r="H383">
         <v>2023</v>
@@ -31618,7 +31618,7 @@
         <v>8</v>
       </c>
       <c r="AB383" t="s">
-        <v>1447</v>
+        <v>1411</v>
       </c>
       <c r="AE383">
         <v>1757</v>
@@ -31627,10 +31627,10 @@
         <v>54</v>
       </c>
       <c r="AO383" t="s">
-        <v>1448</v>
+        <v>1412</v>
       </c>
       <c r="AP383" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ383">
         <v>575</v>
@@ -31638,10 +31638,10 @@
     </row>
     <row r="384" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>1449</v>
+        <v>1413</v>
       </c>
       <c r="B384" t="s">
-        <v>1450</v>
+        <v>1414</v>
       </c>
       <c r="C384" t="s">
         <v>45</v>
@@ -31656,13 +31656,13 @@
         <v>340</v>
       </c>
       <c r="G384" t="s">
-        <v>1438</v>
+        <v>1402</v>
       </c>
       <c r="H384">
         <v>2023</v>
       </c>
       <c r="I384" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="J384" t="s">
         <v>49</v>
@@ -31674,16 +31674,16 @@
         <v>8</v>
       </c>
       <c r="AB384" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH384" t="s">
         <v>78</v>
       </c>
       <c r="AO384" t="s">
-        <v>1451</v>
+        <v>1415</v>
       </c>
       <c r="AP384" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ384">
         <v>575</v>
@@ -31691,10 +31691,10 @@
     </row>
     <row r="385" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>1452</v>
+        <v>1416</v>
       </c>
       <c r="B385" t="s">
-        <v>1453</v>
+        <v>1417</v>
       </c>
       <c r="C385" t="s">
         <v>45</v>
@@ -31709,7 +31709,7 @@
         <v>340</v>
       </c>
       <c r="G385" t="s">
-        <v>1454</v>
+        <v>1418</v>
       </c>
       <c r="H385">
         <v>2023</v>
@@ -31736,7 +31736,7 @@
         <v>8</v>
       </c>
       <c r="AB385" t="s">
-        <v>1455</v>
+        <v>1419</v>
       </c>
       <c r="AE385">
         <v>182420</v>
@@ -31745,10 +31745,10 @@
         <v>54</v>
       </c>
       <c r="AO385" t="s">
-        <v>1456</v>
+        <v>1420</v>
       </c>
       <c r="AP385" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ385">
         <v>575</v>
@@ -31756,10 +31756,10 @@
     </row>
     <row r="386" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>1457</v>
+        <v>1421</v>
       </c>
       <c r="B386" t="s">
-        <v>1458</v>
+        <v>1422</v>
       </c>
       <c r="C386" t="s">
         <v>45</v>
@@ -31774,7 +31774,7 @@
         <v>340</v>
       </c>
       <c r="G386" t="s">
-        <v>1454</v>
+        <v>1418</v>
       </c>
       <c r="H386">
         <v>2023</v>
@@ -31801,7 +31801,7 @@
         <v>8</v>
       </c>
       <c r="AB386" t="s">
-        <v>1459</v>
+        <v>1423</v>
       </c>
       <c r="AE386">
         <v>203139</v>
@@ -31810,10 +31810,10 @@
         <v>54</v>
       </c>
       <c r="AO386" t="s">
-        <v>1460</v>
+        <v>1424</v>
       </c>
       <c r="AP386" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ386">
         <v>575</v>
@@ -31821,10 +31821,10 @@
     </row>
     <row r="387" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>1461</v>
+        <v>1425</v>
       </c>
       <c r="B387" t="s">
-        <v>1462</v>
+        <v>1426</v>
       </c>
       <c r="C387" t="s">
         <v>45</v>
@@ -31839,7 +31839,7 @@
         <v>340</v>
       </c>
       <c r="G387" t="s">
-        <v>1454</v>
+        <v>1418</v>
       </c>
       <c r="H387">
         <v>2023</v>
@@ -31866,7 +31866,7 @@
         <v>8</v>
       </c>
       <c r="AB387" t="s">
-        <v>1463</v>
+        <v>1427</v>
       </c>
       <c r="AE387">
         <v>224301</v>
@@ -31875,10 +31875,10 @@
         <v>54</v>
       </c>
       <c r="AO387" t="s">
-        <v>1464</v>
+        <v>1428</v>
       </c>
       <c r="AP387" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ387">
         <v>575</v>
@@ -31886,10 +31886,10 @@
     </row>
     <row r="388" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>1465</v>
+        <v>1429</v>
       </c>
       <c r="B388" t="s">
-        <v>1466</v>
+        <v>1430</v>
       </c>
       <c r="C388" t="s">
         <v>45</v>
@@ -31904,7 +31904,7 @@
         <v>340</v>
       </c>
       <c r="G388" t="s">
-        <v>1454</v>
+        <v>1418</v>
       </c>
       <c r="H388">
         <v>2023</v>
@@ -31931,7 +31931,7 @@
         <v>8</v>
       </c>
       <c r="AB388" t="s">
-        <v>1467</v>
+        <v>1431</v>
       </c>
       <c r="AE388">
         <v>1749</v>
@@ -31940,10 +31940,10 @@
         <v>54</v>
       </c>
       <c r="AO388" t="s">
-        <v>1468</v>
+        <v>1432</v>
       </c>
       <c r="AP388" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ388">
         <v>575</v>
@@ -31951,10 +31951,10 @@
     </row>
     <row r="389" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>1469</v>
+        <v>1433</v>
       </c>
       <c r="B389" t="s">
-        <v>1470</v>
+        <v>1434</v>
       </c>
       <c r="C389" t="s">
         <v>45</v>
@@ -31969,13 +31969,13 @@
         <v>340</v>
       </c>
       <c r="G389" t="s">
-        <v>1454</v>
+        <v>1418</v>
       </c>
       <c r="H389">
         <v>2023</v>
       </c>
       <c r="I389" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="J389" t="s">
         <v>49</v>
@@ -31987,16 +31987,16 @@
         <v>8</v>
       </c>
       <c r="AB389" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH389" t="s">
         <v>78</v>
       </c>
       <c r="AO389" t="s">
-        <v>1471</v>
+        <v>1435</v>
       </c>
       <c r="AP389" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ389">
         <v>575</v>
@@ -32004,10 +32004,10 @@
     </row>
     <row r="390" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>1472</v>
+        <v>1436</v>
       </c>
       <c r="B390" t="s">
-        <v>1473</v>
+        <v>1437</v>
       </c>
       <c r="C390" t="s">
         <v>45</v>
@@ -32022,7 +32022,7 @@
         <v>340</v>
       </c>
       <c r="G390" t="s">
-        <v>1474</v>
+        <v>1438</v>
       </c>
       <c r="H390">
         <v>2023</v>
@@ -32049,7 +32049,7 @@
         <v>8</v>
       </c>
       <c r="AB390" t="s">
-        <v>1475</v>
+        <v>1439</v>
       </c>
       <c r="AE390">
         <v>172845</v>
@@ -32058,10 +32058,10 @@
         <v>54</v>
       </c>
       <c r="AO390" t="s">
-        <v>1476</v>
+        <v>1440</v>
       </c>
       <c r="AP390" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ390">
         <v>575</v>
@@ -32069,10 +32069,10 @@
     </row>
     <row r="391" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>1477</v>
+        <v>1441</v>
       </c>
       <c r="B391" t="s">
-        <v>1478</v>
+        <v>1442</v>
       </c>
       <c r="C391" t="s">
         <v>45</v>
@@ -32087,7 +32087,7 @@
         <v>340</v>
       </c>
       <c r="G391" t="s">
-        <v>1474</v>
+        <v>1438</v>
       </c>
       <c r="H391">
         <v>2023</v>
@@ -32114,7 +32114,7 @@
         <v>8</v>
       </c>
       <c r="AB391" t="s">
-        <v>1479</v>
+        <v>1443</v>
       </c>
       <c r="AE391">
         <v>234041</v>
@@ -32123,10 +32123,10 @@
         <v>54</v>
       </c>
       <c r="AO391" t="s">
-        <v>1480</v>
+        <v>1444</v>
       </c>
       <c r="AP391" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ391">
         <v>575</v>
@@ -32134,10 +32134,10 @@
     </row>
     <row r="392" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>1481</v>
+        <v>1445</v>
       </c>
       <c r="B392" t="s">
-        <v>1482</v>
+        <v>1446</v>
       </c>
       <c r="C392" t="s">
         <v>45</v>
@@ -32152,7 +32152,7 @@
         <v>340</v>
       </c>
       <c r="G392" t="s">
-        <v>1474</v>
+        <v>1438</v>
       </c>
       <c r="H392">
         <v>2023</v>
@@ -32179,7 +32179,7 @@
         <v>8</v>
       </c>
       <c r="AB392" t="s">
-        <v>1483</v>
+        <v>1447</v>
       </c>
       <c r="AE392">
         <v>1516</v>
@@ -32188,10 +32188,10 @@
         <v>54</v>
       </c>
       <c r="AO392" t="s">
-        <v>1484</v>
+        <v>1448</v>
       </c>
       <c r="AP392" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ392">
         <v>575</v>
@@ -32199,10 +32199,10 @@
     </row>
     <row r="393" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>1485</v>
+        <v>1449</v>
       </c>
       <c r="B393" t="s">
-        <v>1486</v>
+        <v>1450</v>
       </c>
       <c r="C393" t="s">
         <v>45</v>
@@ -32217,13 +32217,13 @@
         <v>340</v>
       </c>
       <c r="G393" t="s">
-        <v>1474</v>
+        <v>1438</v>
       </c>
       <c r="H393">
         <v>2023</v>
       </c>
       <c r="I393" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="J393" t="s">
         <v>49</v>
@@ -32235,16 +32235,16 @@
         <v>8</v>
       </c>
       <c r="AB393" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH393" t="s">
         <v>78</v>
       </c>
       <c r="AO393" t="s">
-        <v>1487</v>
+        <v>1451</v>
       </c>
       <c r="AP393" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ393">
         <v>575</v>
@@ -32252,10 +32252,10 @@
     </row>
     <row r="394" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>1488</v>
+        <v>1452</v>
       </c>
       <c r="B394" t="s">
-        <v>1489</v>
+        <v>1453</v>
       </c>
       <c r="C394" t="s">
         <v>45</v>
@@ -32270,7 +32270,7 @@
         <v>340</v>
       </c>
       <c r="G394" t="s">
-        <v>1490</v>
+        <v>1454</v>
       </c>
       <c r="H394">
         <v>2023</v>
@@ -32297,7 +32297,7 @@
         <v>9</v>
       </c>
       <c r="AB394" t="s">
-        <v>1491</v>
+        <v>1455</v>
       </c>
       <c r="AE394">
         <v>182201</v>
@@ -32306,10 +32306,10 @@
         <v>54</v>
       </c>
       <c r="AO394" t="s">
-        <v>1492</v>
+        <v>1456</v>
       </c>
       <c r="AP394" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ394">
         <v>575</v>
@@ -32317,10 +32317,10 @@
     </row>
     <row r="395" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>1493</v>
+        <v>1457</v>
       </c>
       <c r="B395" t="s">
-        <v>1494</v>
+        <v>1458</v>
       </c>
       <c r="C395" t="s">
         <v>45</v>
@@ -32335,7 +32335,7 @@
         <v>340</v>
       </c>
       <c r="G395" t="s">
-        <v>1490</v>
+        <v>1454</v>
       </c>
       <c r="H395">
         <v>2023</v>
@@ -32362,7 +32362,7 @@
         <v>9</v>
       </c>
       <c r="AB395" t="s">
-        <v>1495</v>
+        <v>1459</v>
       </c>
       <c r="AE395">
         <v>225130</v>
@@ -32371,10 +32371,10 @@
         <v>54</v>
       </c>
       <c r="AO395" t="s">
-        <v>1496</v>
+        <v>1460</v>
       </c>
       <c r="AP395" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ395">
         <v>575</v>
@@ -32382,10 +32382,10 @@
     </row>
     <row r="396" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>1497</v>
+        <v>1461</v>
       </c>
       <c r="B396" t="s">
-        <v>1498</v>
+        <v>1462</v>
       </c>
       <c r="C396" t="s">
         <v>45</v>
@@ -32400,7 +32400,7 @@
         <v>340</v>
       </c>
       <c r="G396" t="s">
-        <v>1490</v>
+        <v>1454</v>
       </c>
       <c r="H396">
         <v>2023</v>
@@ -32427,7 +32427,7 @@
         <v>9</v>
       </c>
       <c r="AB396" t="s">
-        <v>1499</v>
+        <v>1463</v>
       </c>
       <c r="AE396">
         <v>1558</v>
@@ -32436,10 +32436,10 @@
         <v>54</v>
       </c>
       <c r="AO396" t="s">
-        <v>1500</v>
+        <v>1464</v>
       </c>
       <c r="AP396" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ396">
         <v>575</v>
@@ -32447,10 +32447,10 @@
     </row>
     <row r="397" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>1501</v>
+        <v>1465</v>
       </c>
       <c r="B397" t="s">
-        <v>1502</v>
+        <v>1466</v>
       </c>
       <c r="C397" t="s">
         <v>45</v>
@@ -32465,7 +32465,7 @@
         <v>340</v>
       </c>
       <c r="G397" t="s">
-        <v>1490</v>
+        <v>1454</v>
       </c>
       <c r="H397">
         <v>2023</v>
@@ -32492,7 +32492,7 @@
         <v>9</v>
       </c>
       <c r="AB397" t="s">
-        <v>1503</v>
+        <v>1467</v>
       </c>
       <c r="AE397">
         <v>2642</v>
@@ -32501,10 +32501,10 @@
         <v>54</v>
       </c>
       <c r="AO397" t="s">
-        <v>1504</v>
+        <v>1468</v>
       </c>
       <c r="AP397" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ397">
         <v>575</v>
@@ -32512,10 +32512,10 @@
     </row>
     <row r="398" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>1505</v>
+        <v>1469</v>
       </c>
       <c r="B398" t="s">
-        <v>1506</v>
+        <v>1470</v>
       </c>
       <c r="C398" t="s">
         <v>45</v>
@@ -32530,13 +32530,13 @@
         <v>340</v>
       </c>
       <c r="G398" t="s">
-        <v>1490</v>
+        <v>1454</v>
       </c>
       <c r="H398">
         <v>2023</v>
       </c>
       <c r="I398" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="J398" t="s">
         <v>49</v>
@@ -32548,16 +32548,16 @@
         <v>9</v>
       </c>
       <c r="AB398" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH398" t="s">
         <v>78</v>
       </c>
       <c r="AO398" t="s">
-        <v>1507</v>
+        <v>1471</v>
       </c>
       <c r="AP398" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ398">
         <v>575</v>
@@ -32565,10 +32565,10 @@
     </row>
     <row r="399" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>1508</v>
+        <v>1472</v>
       </c>
       <c r="B399" t="s">
-        <v>1509</v>
+        <v>1473</v>
       </c>
       <c r="C399" t="s">
         <v>45</v>
@@ -32583,7 +32583,7 @@
         <v>340</v>
       </c>
       <c r="G399" t="s">
-        <v>1510</v>
+        <v>1474</v>
       </c>
       <c r="H399">
         <v>2023</v>
@@ -32610,7 +32610,7 @@
         <v>9</v>
       </c>
       <c r="AB399" t="s">
-        <v>1511</v>
+        <v>1475</v>
       </c>
       <c r="AE399">
         <v>214433</v>
@@ -32619,10 +32619,10 @@
         <v>54</v>
       </c>
       <c r="AO399" t="s">
-        <v>1512</v>
+        <v>1476</v>
       </c>
       <c r="AP399" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ399">
         <v>575</v>
@@ -32630,10 +32630,10 @@
     </row>
     <row r="400" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>1513</v>
+        <v>1477</v>
       </c>
       <c r="B400" t="s">
-        <v>1514</v>
+        <v>1478</v>
       </c>
       <c r="C400" t="s">
         <v>45</v>
@@ -32648,7 +32648,7 @@
         <v>340</v>
       </c>
       <c r="G400" t="s">
-        <v>1510</v>
+        <v>1474</v>
       </c>
       <c r="H400">
         <v>2023</v>
@@ -32675,7 +32675,7 @@
         <v>9</v>
       </c>
       <c r="AB400" t="s">
-        <v>1515</v>
+        <v>1479</v>
       </c>
       <c r="AE400">
         <v>225834</v>
@@ -32684,10 +32684,10 @@
         <v>54</v>
       </c>
       <c r="AO400" t="s">
-        <v>1516</v>
+        <v>1480</v>
       </c>
       <c r="AP400" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ400">
         <v>575</v>
@@ -32695,10 +32695,10 @@
     </row>
     <row r="401" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>1517</v>
+        <v>1481</v>
       </c>
       <c r="B401" t="s">
-        <v>1518</v>
+        <v>1482</v>
       </c>
       <c r="C401" t="s">
         <v>45</v>
@@ -32713,7 +32713,7 @@
         <v>340</v>
       </c>
       <c r="G401" t="s">
-        <v>1510</v>
+        <v>1474</v>
       </c>
       <c r="H401">
         <v>2023</v>
@@ -32740,7 +32740,7 @@
         <v>9</v>
       </c>
       <c r="AB401" t="s">
-        <v>1519</v>
+        <v>1483</v>
       </c>
       <c r="AE401">
         <v>1542</v>
@@ -32749,10 +32749,10 @@
         <v>54</v>
       </c>
       <c r="AO401" t="s">
-        <v>1520</v>
+        <v>1484</v>
       </c>
       <c r="AP401" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ401">
         <v>575</v>
@@ -32760,10 +32760,10 @@
     </row>
     <row r="402" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>1521</v>
+        <v>1485</v>
       </c>
       <c r="B402" t="s">
-        <v>1522</v>
+        <v>1486</v>
       </c>
       <c r="C402" t="s">
         <v>45</v>
@@ -32778,13 +32778,13 @@
         <v>340</v>
       </c>
       <c r="G402" t="s">
-        <v>1510</v>
+        <v>1474</v>
       </c>
       <c r="H402">
         <v>2023</v>
       </c>
       <c r="I402" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="J402" t="s">
         <v>49</v>
@@ -32796,16 +32796,16 @@
         <v>9</v>
       </c>
       <c r="AB402" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH402" t="s">
         <v>78</v>
       </c>
       <c r="AO402" t="s">
-        <v>1523</v>
+        <v>1487</v>
       </c>
       <c r="AP402" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ402">
         <v>575</v>
@@ -32813,10 +32813,10 @@
     </row>
     <row r="403" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>1524</v>
+        <v>1488</v>
       </c>
       <c r="B403" t="s">
-        <v>1525</v>
+        <v>1489</v>
       </c>
       <c r="C403" t="s">
         <v>45</v>
@@ -32831,7 +32831,7 @@
         <v>340</v>
       </c>
       <c r="G403" t="s">
-        <v>1526</v>
+        <v>1490</v>
       </c>
       <c r="H403">
         <v>2023</v>
@@ -32858,7 +32858,7 @@
         <v>9</v>
       </c>
       <c r="AB403" t="s">
-        <v>1527</v>
+        <v>1491</v>
       </c>
       <c r="AE403">
         <v>172342</v>
@@ -32867,10 +32867,10 @@
         <v>54</v>
       </c>
       <c r="AO403" t="s">
-        <v>1528</v>
+        <v>1492</v>
       </c>
       <c r="AP403" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ403">
         <v>575</v>
@@ -32878,10 +32878,10 @@
     </row>
     <row r="404" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>1529</v>
+        <v>1493</v>
       </c>
       <c r="B404" t="s">
-        <v>1530</v>
+        <v>1494</v>
       </c>
       <c r="C404" t="s">
         <v>45</v>
@@ -32896,7 +32896,7 @@
         <v>340</v>
       </c>
       <c r="G404" t="s">
-        <v>1526</v>
+        <v>1490</v>
       </c>
       <c r="H404">
         <v>2023</v>
@@ -32923,7 +32923,7 @@
         <v>9</v>
       </c>
       <c r="AB404" t="s">
-        <v>1531</v>
+        <v>1495</v>
       </c>
       <c r="AE404">
         <v>203702</v>
@@ -32932,10 +32932,10 @@
         <v>54</v>
       </c>
       <c r="AO404" t="s">
-        <v>1532</v>
+        <v>1496</v>
       </c>
       <c r="AP404" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ404">
         <v>575</v>
@@ -32943,10 +32943,10 @@
     </row>
     <row r="405" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>1533</v>
+        <v>1497</v>
       </c>
       <c r="B405" t="s">
-        <v>1534</v>
+        <v>1498</v>
       </c>
       <c r="C405" t="s">
         <v>45</v>
@@ -32961,7 +32961,7 @@
         <v>340</v>
       </c>
       <c r="G405" t="s">
-        <v>1526</v>
+        <v>1490</v>
       </c>
       <c r="H405">
         <v>2023</v>
@@ -32988,7 +32988,7 @@
         <v>9</v>
       </c>
       <c r="AB405" t="s">
-        <v>1535</v>
+        <v>1499</v>
       </c>
       <c r="AE405">
         <v>214222</v>
@@ -32997,10 +32997,10 @@
         <v>54</v>
       </c>
       <c r="AO405" t="s">
-        <v>1536</v>
+        <v>1500</v>
       </c>
       <c r="AP405" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ405">
         <v>575</v>
@@ -33008,10 +33008,10 @@
     </row>
     <row r="406" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>1537</v>
+        <v>1501</v>
       </c>
       <c r="B406" t="s">
-        <v>1538</v>
+        <v>1502</v>
       </c>
       <c r="C406" t="s">
         <v>45</v>
@@ -33026,7 +33026,7 @@
         <v>340</v>
       </c>
       <c r="G406" t="s">
-        <v>1526</v>
+        <v>1490</v>
       </c>
       <c r="H406">
         <v>2023</v>
@@ -33053,7 +33053,7 @@
         <v>9</v>
       </c>
       <c r="AB406" t="s">
-        <v>1539</v>
+        <v>1503</v>
       </c>
       <c r="AE406">
         <v>221210</v>
@@ -33062,10 +33062,10 @@
         <v>54</v>
       </c>
       <c r="AO406" t="s">
-        <v>1540</v>
+        <v>1504</v>
       </c>
       <c r="AP406" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ406">
         <v>575</v>
@@ -33073,10 +33073,10 @@
     </row>
     <row r="407" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>1541</v>
+        <v>1505</v>
       </c>
       <c r="B407" t="s">
-        <v>1542</v>
+        <v>1506</v>
       </c>
       <c r="C407" t="s">
         <v>45</v>
@@ -33091,7 +33091,7 @@
         <v>340</v>
       </c>
       <c r="G407" t="s">
-        <v>1526</v>
+        <v>1490</v>
       </c>
       <c r="H407">
         <v>2023</v>
@@ -33118,7 +33118,7 @@
         <v>9</v>
       </c>
       <c r="AB407" t="s">
-        <v>1543</v>
+        <v>1507</v>
       </c>
       <c r="AE407">
         <v>32</v>
@@ -33127,10 +33127,10 @@
         <v>54</v>
       </c>
       <c r="AO407" t="s">
-        <v>1544</v>
+        <v>1508</v>
       </c>
       <c r="AP407" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ407">
         <v>575</v>
@@ -33138,10 +33138,10 @@
     </row>
     <row r="408" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>1545</v>
+        <v>1509</v>
       </c>
       <c r="B408" t="s">
-        <v>1546</v>
+        <v>1510</v>
       </c>
       <c r="C408" t="s">
         <v>45</v>
@@ -33156,13 +33156,13 @@
         <v>340</v>
       </c>
       <c r="G408" t="s">
-        <v>1526</v>
+        <v>1490</v>
       </c>
       <c r="H408">
         <v>2023</v>
       </c>
       <c r="I408" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="J408" t="s">
         <v>49</v>
@@ -33174,16 +33174,16 @@
         <v>9</v>
       </c>
       <c r="AB408" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH408" t="s">
         <v>78</v>
       </c>
       <c r="AO408" t="s">
-        <v>1547</v>
+        <v>1511</v>
       </c>
       <c r="AP408" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ408">
         <v>575</v>
@@ -33191,10 +33191,10 @@
     </row>
     <row r="409" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>1548</v>
+        <v>1512</v>
       </c>
       <c r="B409" t="s">
-        <v>1549</v>
+        <v>1513</v>
       </c>
       <c r="C409" t="s">
         <v>45</v>
@@ -33209,7 +33209,7 @@
         <v>340</v>
       </c>
       <c r="G409" t="s">
-        <v>1550</v>
+        <v>1514</v>
       </c>
       <c r="H409">
         <v>2023</v>
@@ -33236,7 +33236,7 @@
         <v>9</v>
       </c>
       <c r="AB409" t="s">
-        <v>1551</v>
+        <v>1515</v>
       </c>
       <c r="AE409">
         <v>175232</v>
@@ -33245,10 +33245,10 @@
         <v>54</v>
       </c>
       <c r="AO409" t="s">
-        <v>1552</v>
+        <v>1516</v>
       </c>
       <c r="AP409" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ409">
         <v>575</v>
@@ -33256,10 +33256,10 @@
     </row>
     <row r="410" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>1553</v>
+        <v>1517</v>
       </c>
       <c r="B410" t="s">
-        <v>1554</v>
+        <v>1518</v>
       </c>
       <c r="C410" t="s">
         <v>45</v>
@@ -33274,7 +33274,7 @@
         <v>340</v>
       </c>
       <c r="G410" t="s">
-        <v>1550</v>
+        <v>1514</v>
       </c>
       <c r="H410">
         <v>2023</v>
@@ -33301,7 +33301,7 @@
         <v>9</v>
       </c>
       <c r="AB410" t="s">
-        <v>1555</v>
+        <v>1519</v>
       </c>
       <c r="AE410">
         <v>215804</v>
@@ -33310,10 +33310,10 @@
         <v>54</v>
       </c>
       <c r="AO410" t="s">
-        <v>1556</v>
+        <v>1520</v>
       </c>
       <c r="AP410" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ410">
         <v>575</v>
@@ -33321,10 +33321,10 @@
     </row>
     <row r="411" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>1557</v>
+        <v>1521</v>
       </c>
       <c r="B411" t="s">
-        <v>1558</v>
+        <v>1522</v>
       </c>
       <c r="C411" t="s">
         <v>45</v>
@@ -33339,7 +33339,7 @@
         <v>340</v>
       </c>
       <c r="G411" t="s">
-        <v>1550</v>
+        <v>1514</v>
       </c>
       <c r="H411">
         <v>2023</v>
@@ -33366,7 +33366,7 @@
         <v>9</v>
       </c>
       <c r="AB411" t="s">
-        <v>1559</v>
+        <v>1523</v>
       </c>
       <c r="AE411">
         <v>233534</v>
@@ -33375,10 +33375,10 @@
         <v>54</v>
       </c>
       <c r="AO411" t="s">
-        <v>1560</v>
+        <v>1524</v>
       </c>
       <c r="AP411" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ411">
         <v>575</v>
@@ -33386,10 +33386,10 @@
     </row>
     <row r="412" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>1561</v>
+        <v>1525</v>
       </c>
       <c r="B412" t="s">
-        <v>1562</v>
+        <v>1526</v>
       </c>
       <c r="C412" t="s">
         <v>45</v>
@@ -33404,7 +33404,7 @@
         <v>340</v>
       </c>
       <c r="G412" t="s">
-        <v>1550</v>
+        <v>1514</v>
       </c>
       <c r="H412">
         <v>2023</v>
@@ -33431,7 +33431,7 @@
         <v>9</v>
       </c>
       <c r="AB412" t="s">
-        <v>1563</v>
+        <v>1527</v>
       </c>
       <c r="AE412">
         <v>1806</v>
@@ -33440,10 +33440,10 @@
         <v>54</v>
       </c>
       <c r="AO412" t="s">
-        <v>1564</v>
+        <v>1528</v>
       </c>
       <c r="AP412" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ412">
         <v>575</v>
@@ -33451,10 +33451,10 @@
     </row>
     <row r="413" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>1565</v>
+        <v>1529</v>
       </c>
       <c r="B413" t="s">
-        <v>1566</v>
+        <v>1530</v>
       </c>
       <c r="C413" t="s">
         <v>45</v>
@@ -33469,13 +33469,13 @@
         <v>340</v>
       </c>
       <c r="G413" t="s">
-        <v>1550</v>
+        <v>1514</v>
       </c>
       <c r="H413">
         <v>2023</v>
       </c>
       <c r="I413" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="J413" t="s">
         <v>49</v>
@@ -33487,16 +33487,16 @@
         <v>9</v>
       </c>
       <c r="AB413" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH413" t="s">
         <v>78</v>
       </c>
       <c r="AO413" t="s">
-        <v>1567</v>
+        <v>1531</v>
       </c>
       <c r="AP413" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ413">
         <v>575</v>
@@ -33504,10 +33504,10 @@
     </row>
     <row r="414" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>1568</v>
+        <v>1532</v>
       </c>
       <c r="B414" t="s">
-        <v>1569</v>
+        <v>1533</v>
       </c>
       <c r="C414" t="s">
         <v>45</v>
@@ -33522,7 +33522,7 @@
         <v>340</v>
       </c>
       <c r="G414" t="s">
-        <v>1570</v>
+        <v>1534</v>
       </c>
       <c r="H414">
         <v>2023</v>
@@ -33549,7 +33549,7 @@
         <v>9</v>
       </c>
       <c r="AB414" t="s">
-        <v>1383</v>
+        <v>1347</v>
       </c>
       <c r="AE414">
         <v>201047</v>
@@ -33558,10 +33558,10 @@
         <v>54</v>
       </c>
       <c r="AO414" t="s">
-        <v>1571</v>
+        <v>1535</v>
       </c>
       <c r="AP414" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ414">
         <v>575</v>
@@ -33569,10 +33569,10 @@
     </row>
     <row r="415" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>1572</v>
+        <v>1536</v>
       </c>
       <c r="B415" t="s">
-        <v>1573</v>
+        <v>1537</v>
       </c>
       <c r="C415" t="s">
         <v>45</v>
@@ -33587,7 +33587,7 @@
         <v>340</v>
       </c>
       <c r="G415" t="s">
-        <v>1570</v>
+        <v>1534</v>
       </c>
       <c r="H415">
         <v>2023</v>
@@ -33614,7 +33614,7 @@
         <v>9</v>
       </c>
       <c r="AB415" t="s">
-        <v>1574</v>
+        <v>1538</v>
       </c>
       <c r="AE415">
         <v>204456</v>
@@ -33623,10 +33623,10 @@
         <v>54</v>
       </c>
       <c r="AO415" t="s">
-        <v>1575</v>
+        <v>1539</v>
       </c>
       <c r="AP415" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ415">
         <v>575</v>
@@ -33634,10 +33634,10 @@
     </row>
     <row r="416" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>1576</v>
+        <v>1540</v>
       </c>
       <c r="B416" t="s">
-        <v>1577</v>
+        <v>1541</v>
       </c>
       <c r="C416" t="s">
         <v>45</v>
@@ -33652,7 +33652,7 @@
         <v>340</v>
       </c>
       <c r="G416" t="s">
-        <v>1570</v>
+        <v>1534</v>
       </c>
       <c r="H416">
         <v>2023</v>
@@ -33679,7 +33679,7 @@
         <v>9</v>
       </c>
       <c r="AB416" t="s">
-        <v>1578</v>
+        <v>1542</v>
       </c>
       <c r="AE416">
         <v>225853</v>
@@ -33688,10 +33688,10 @@
         <v>54</v>
       </c>
       <c r="AO416" t="s">
-        <v>1579</v>
+        <v>1543</v>
       </c>
       <c r="AP416" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ416">
         <v>575</v>
@@ -33699,10 +33699,10 @@
     </row>
     <row r="417" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>1580</v>
+        <v>1544</v>
       </c>
       <c r="B417" t="s">
-        <v>1581</v>
+        <v>1545</v>
       </c>
       <c r="C417" t="s">
         <v>45</v>
@@ -33717,7 +33717,7 @@
         <v>340</v>
       </c>
       <c r="G417" t="s">
-        <v>1570</v>
+        <v>1534</v>
       </c>
       <c r="H417">
         <v>2023</v>
@@ -33744,7 +33744,7 @@
         <v>9</v>
       </c>
       <c r="AB417" t="s">
-        <v>1582</v>
+        <v>1546</v>
       </c>
       <c r="AE417">
         <v>130</v>
@@ -33753,10 +33753,10 @@
         <v>54</v>
       </c>
       <c r="AO417" t="s">
-        <v>1583</v>
+        <v>1547</v>
       </c>
       <c r="AP417" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ417">
         <v>575</v>
@@ -33764,10 +33764,10 @@
     </row>
     <row r="418" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>1584</v>
+        <v>1548</v>
       </c>
       <c r="B418" t="s">
-        <v>1585</v>
+        <v>1549</v>
       </c>
       <c r="C418" t="s">
         <v>45</v>
@@ -33782,7 +33782,7 @@
         <v>340</v>
       </c>
       <c r="G418" t="s">
-        <v>1570</v>
+        <v>1534</v>
       </c>
       <c r="H418">
         <v>2023</v>
@@ -33809,7 +33809,7 @@
         <v>9</v>
       </c>
       <c r="AB418" t="s">
-        <v>1586</v>
+        <v>1550</v>
       </c>
       <c r="AE418">
         <v>1537</v>
@@ -33818,10 +33818,10 @@
         <v>54</v>
       </c>
       <c r="AO418" t="s">
-        <v>1587</v>
+        <v>1551</v>
       </c>
       <c r="AP418" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ418">
         <v>575</v>
@@ -33829,10 +33829,10 @@
     </row>
     <row r="419" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>1588</v>
+        <v>1552</v>
       </c>
       <c r="B419" t="s">
-        <v>1589</v>
+        <v>1553</v>
       </c>
       <c r="C419" t="s">
         <v>45</v>
@@ -33847,13 +33847,13 @@
         <v>340</v>
       </c>
       <c r="G419" t="s">
-        <v>1570</v>
+        <v>1534</v>
       </c>
       <c r="H419">
         <v>2023</v>
       </c>
       <c r="I419" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="J419" t="s">
         <v>49</v>
@@ -33865,16 +33865,16 @@
         <v>9</v>
       </c>
       <c r="AB419" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH419" t="s">
         <v>78</v>
       </c>
       <c r="AO419" t="s">
-        <v>1590</v>
+        <v>1554</v>
       </c>
       <c r="AP419" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ419">
         <v>575</v>
@@ -33882,10 +33882,10 @@
     </row>
     <row r="420" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>1591</v>
+        <v>1555</v>
       </c>
       <c r="B420" t="s">
-        <v>1592</v>
+        <v>1556</v>
       </c>
       <c r="C420" t="s">
         <v>45</v>
@@ -33900,7 +33900,7 @@
         <v>340</v>
       </c>
       <c r="G420" t="s">
-        <v>1593</v>
+        <v>1557</v>
       </c>
       <c r="H420">
         <v>2023</v>
@@ -33927,7 +33927,7 @@
         <v>9</v>
       </c>
       <c r="AB420" t="s">
-        <v>1594</v>
+        <v>1558</v>
       </c>
       <c r="AE420">
         <v>182616</v>
@@ -33936,10 +33936,10 @@
         <v>54</v>
       </c>
       <c r="AO420" t="s">
-        <v>1595</v>
+        <v>1559</v>
       </c>
       <c r="AP420" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ420">
         <v>575</v>
@@ -33947,10 +33947,10 @@
     </row>
     <row r="421" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>1596</v>
+        <v>1560</v>
       </c>
       <c r="B421" t="s">
-        <v>1597</v>
+        <v>1561</v>
       </c>
       <c r="C421" t="s">
         <v>45</v>
@@ -33965,7 +33965,7 @@
         <v>340</v>
       </c>
       <c r="G421" t="s">
-        <v>1593</v>
+        <v>1557</v>
       </c>
       <c r="H421">
         <v>2023</v>
@@ -33992,7 +33992,7 @@
         <v>9</v>
       </c>
       <c r="AB421" t="s">
-        <v>1383</v>
+        <v>1347</v>
       </c>
       <c r="AE421">
         <v>195315</v>
@@ -34001,10 +34001,10 @@
         <v>54</v>
       </c>
       <c r="AO421" t="s">
-        <v>1598</v>
+        <v>1562</v>
       </c>
       <c r="AP421" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ421">
         <v>575</v>
@@ -34012,10 +34012,10 @@
     </row>
     <row r="422" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>1599</v>
+        <v>1563</v>
       </c>
       <c r="B422" t="s">
-        <v>1600</v>
+        <v>1564</v>
       </c>
       <c r="C422" t="s">
         <v>45</v>
@@ -34030,7 +34030,7 @@
         <v>340</v>
       </c>
       <c r="G422" t="s">
-        <v>1593</v>
+        <v>1557</v>
       </c>
       <c r="H422">
         <v>2023</v>
@@ -34057,7 +34057,7 @@
         <v>9</v>
       </c>
       <c r="AB422" t="s">
-        <v>1601</v>
+        <v>1565</v>
       </c>
       <c r="AE422">
         <v>223359</v>
@@ -34066,10 +34066,10 @@
         <v>54</v>
       </c>
       <c r="AO422" t="s">
-        <v>1602</v>
+        <v>1566</v>
       </c>
       <c r="AP422" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ422">
         <v>575</v>
@@ -34077,10 +34077,10 @@
     </row>
     <row r="423" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>1603</v>
+        <v>1567</v>
       </c>
       <c r="B423" t="s">
-        <v>1604</v>
+        <v>1568</v>
       </c>
       <c r="C423" t="s">
         <v>45</v>
@@ -34095,7 +34095,7 @@
         <v>340</v>
       </c>
       <c r="G423" t="s">
-        <v>1593</v>
+        <v>1557</v>
       </c>
       <c r="H423">
         <v>2023</v>
@@ -34122,7 +34122,7 @@
         <v>9</v>
       </c>
       <c r="AB423" t="s">
-        <v>1605</v>
+        <v>1569</v>
       </c>
       <c r="AE423">
         <v>232039</v>
@@ -34131,10 +34131,10 @@
         <v>54</v>
       </c>
       <c r="AO423" t="s">
-        <v>1606</v>
+        <v>1570</v>
       </c>
       <c r="AP423" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ423">
         <v>575</v>
@@ -34142,10 +34142,10 @@
     </row>
     <row r="424" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>1607</v>
+        <v>1571</v>
       </c>
       <c r="B424" t="s">
-        <v>1608</v>
+        <v>1572</v>
       </c>
       <c r="C424" t="s">
         <v>45</v>
@@ -34160,7 +34160,7 @@
         <v>340</v>
       </c>
       <c r="G424" t="s">
-        <v>1593</v>
+        <v>1557</v>
       </c>
       <c r="H424">
         <v>2023</v>
@@ -34187,7 +34187,7 @@
         <v>9</v>
       </c>
       <c r="AB424" t="s">
-        <v>1609</v>
+        <v>1573</v>
       </c>
       <c r="AE424">
         <v>2033</v>
@@ -34196,10 +34196,10 @@
         <v>54</v>
       </c>
       <c r="AO424" t="s">
-        <v>1610</v>
+        <v>1574</v>
       </c>
       <c r="AP424" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ424">
         <v>575</v>
@@ -34207,10 +34207,10 @@
     </row>
     <row r="425" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>1611</v>
+        <v>1575</v>
       </c>
       <c r="B425" t="s">
-        <v>1612</v>
+        <v>1576</v>
       </c>
       <c r="C425" t="s">
         <v>45</v>
@@ -34225,13 +34225,13 @@
         <v>340</v>
       </c>
       <c r="G425" t="s">
-        <v>1593</v>
+        <v>1557</v>
       </c>
       <c r="H425">
         <v>2023</v>
       </c>
       <c r="I425" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="J425" t="s">
         <v>49</v>
@@ -34243,16 +34243,16 @@
         <v>9</v>
       </c>
       <c r="AB425" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH425" t="s">
         <v>78</v>
       </c>
       <c r="AO425" t="s">
-        <v>1613</v>
+        <v>1577</v>
       </c>
       <c r="AP425" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ425">
         <v>575</v>
@@ -34260,10 +34260,10 @@
     </row>
     <row r="426" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>1614</v>
+        <v>1578</v>
       </c>
       <c r="B426" t="s">
-        <v>1615</v>
+        <v>1579</v>
       </c>
       <c r="C426" t="s">
         <v>45</v>
@@ -34278,7 +34278,7 @@
         <v>340</v>
       </c>
       <c r="G426" t="s">
-        <v>1616</v>
+        <v>1580</v>
       </c>
       <c r="H426">
         <v>2023</v>
@@ -34305,7 +34305,7 @@
         <v>9</v>
       </c>
       <c r="AB426" t="s">
-        <v>1617</v>
+        <v>1581</v>
       </c>
       <c r="AE426" s="1">
         <v>3.528935185185185E-2</v>
@@ -34314,10 +34314,10 @@
         <v>54</v>
       </c>
       <c r="AO426" t="s">
-        <v>1618</v>
+        <v>1582</v>
       </c>
       <c r="AP426" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ426">
         <v>575</v>
@@ -34325,10 +34325,10 @@
     </row>
     <row r="427" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>1619</v>
+        <v>1583</v>
       </c>
       <c r="B427" t="s">
-        <v>1620</v>
+        <v>1584</v>
       </c>
       <c r="C427" t="s">
         <v>45</v>
@@ -34343,7 +34343,7 @@
         <v>340</v>
       </c>
       <c r="G427" t="s">
-        <v>1616</v>
+        <v>1580</v>
       </c>
       <c r="H427">
         <v>2023</v>
@@ -34370,7 +34370,7 @@
         <v>9</v>
       </c>
       <c r="AB427" t="s">
-        <v>1621</v>
+        <v>1585</v>
       </c>
       <c r="AE427" s="1">
         <v>6.9675925925925929E-3</v>
@@ -34379,10 +34379,10 @@
         <v>54</v>
       </c>
       <c r="AO427" t="s">
-        <v>1622</v>
+        <v>1586</v>
       </c>
       <c r="AP427" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ427">
         <v>575</v>
@@ -34390,10 +34390,10 @@
     </row>
     <row r="428" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>1623</v>
+        <v>1587</v>
       </c>
       <c r="B428" t="s">
-        <v>1624</v>
+        <v>1588</v>
       </c>
       <c r="C428" t="s">
         <v>45</v>
@@ -34408,7 +34408,7 @@
         <v>340</v>
       </c>
       <c r="G428" t="s">
-        <v>1616</v>
+        <v>1580</v>
       </c>
       <c r="H428">
         <v>2023</v>
@@ -34435,7 +34435,7 @@
         <v>9</v>
       </c>
       <c r="AB428" t="s">
-        <v>1625</v>
+        <v>1589</v>
       </c>
       <c r="AE428" s="1">
         <v>1.892361111111111E-2</v>
@@ -34444,10 +34444,10 @@
         <v>54</v>
       </c>
       <c r="AO428" t="s">
-        <v>1626</v>
+        <v>1590</v>
       </c>
       <c r="AP428" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ428">
         <v>575</v>
@@ -34455,10 +34455,10 @@
     </row>
     <row r="429" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>1627</v>
+        <v>1591</v>
       </c>
       <c r="B429" t="s">
-        <v>1628</v>
+        <v>1592</v>
       </c>
       <c r="C429" t="s">
         <v>45</v>
@@ -34473,13 +34473,13 @@
         <v>340</v>
       </c>
       <c r="G429" t="s">
-        <v>1616</v>
+        <v>1580</v>
       </c>
       <c r="H429">
         <v>2023</v>
       </c>
       <c r="I429" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="J429" t="s">
         <v>49</v>
@@ -34491,16 +34491,16 @@
         <v>9</v>
       </c>
       <c r="AB429" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH429" t="s">
         <v>78</v>
       </c>
       <c r="AO429" t="s">
-        <v>1629</v>
+        <v>1593</v>
       </c>
       <c r="AP429" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ429">
         <v>575</v>
@@ -34508,10 +34508,10 @@
     </row>
     <row r="430" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>1630</v>
+        <v>1594</v>
       </c>
       <c r="B430" t="s">
-        <v>1631</v>
+        <v>1595</v>
       </c>
       <c r="C430" t="s">
         <v>45</v>
@@ -34526,7 +34526,7 @@
         <v>340</v>
       </c>
       <c r="G430" t="s">
-        <v>1632</v>
+        <v>1596</v>
       </c>
       <c r="H430">
         <v>2023</v>
@@ -34553,7 +34553,7 @@
         <v>9</v>
       </c>
       <c r="AB430" t="s">
-        <v>1633</v>
+        <v>1597</v>
       </c>
       <c r="AE430">
         <v>190413</v>
@@ -34562,10 +34562,10 @@
         <v>54</v>
       </c>
       <c r="AO430" t="s">
-        <v>1634</v>
+        <v>1598</v>
       </c>
       <c r="AP430" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ430">
         <v>575</v>
@@ -34573,10 +34573,10 @@
     </row>
     <row r="431" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>1635</v>
+        <v>1599</v>
       </c>
       <c r="B431" t="s">
-        <v>1636</v>
+        <v>1600</v>
       </c>
       <c r="C431" t="s">
         <v>45</v>
@@ -34591,7 +34591,7 @@
         <v>340</v>
       </c>
       <c r="G431" t="s">
-        <v>1632</v>
+        <v>1596</v>
       </c>
       <c r="H431">
         <v>2023</v>
@@ -34618,7 +34618,7 @@
         <v>9</v>
       </c>
       <c r="AB431" t="s">
-        <v>1637</v>
+        <v>1601</v>
       </c>
       <c r="AE431">
         <v>205344</v>
@@ -34627,10 +34627,10 @@
         <v>54</v>
       </c>
       <c r="AO431" t="s">
-        <v>1638</v>
+        <v>1602</v>
       </c>
       <c r="AP431" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ431">
         <v>575</v>
@@ -34638,10 +34638,10 @@
     </row>
     <row r="432" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>1639</v>
+        <v>1603</v>
       </c>
       <c r="B432" t="s">
-        <v>1640</v>
+        <v>1604</v>
       </c>
       <c r="C432" t="s">
         <v>45</v>
@@ -34656,7 +34656,7 @@
         <v>340</v>
       </c>
       <c r="G432" t="s">
-        <v>1632</v>
+        <v>1596</v>
       </c>
       <c r="H432">
         <v>2023</v>
@@ -34683,7 +34683,7 @@
         <v>9</v>
       </c>
       <c r="AB432" t="s">
-        <v>1641</v>
+        <v>1605</v>
       </c>
       <c r="AE432">
         <v>222908</v>
@@ -34692,10 +34692,10 @@
         <v>54</v>
       </c>
       <c r="AO432" t="s">
-        <v>1642</v>
+        <v>1606</v>
       </c>
       <c r="AP432" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ432">
         <v>575</v>
@@ -34703,10 +34703,10 @@
     </row>
     <row r="433" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>1643</v>
+        <v>1607</v>
       </c>
       <c r="B433" t="s">
-        <v>1644</v>
+        <v>1608</v>
       </c>
       <c r="C433" t="s">
         <v>45</v>
@@ -34721,7 +34721,7 @@
         <v>340</v>
       </c>
       <c r="G433" t="s">
-        <v>1632</v>
+        <v>1596</v>
       </c>
       <c r="H433">
         <v>2023</v>
@@ -34748,7 +34748,7 @@
         <v>9</v>
       </c>
       <c r="AB433" t="s">
-        <v>1645</v>
+        <v>1609</v>
       </c>
       <c r="AE433">
         <v>231620</v>
@@ -34757,10 +34757,10 @@
         <v>54</v>
       </c>
       <c r="AO433" t="s">
-        <v>1646</v>
+        <v>1610</v>
       </c>
       <c r="AP433" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ433">
         <v>575</v>
@@ -34768,10 +34768,10 @@
     </row>
     <row r="434" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>1647</v>
+        <v>1611</v>
       </c>
       <c r="B434" t="s">
-        <v>1648</v>
+        <v>1612</v>
       </c>
       <c r="C434" t="s">
         <v>45</v>
@@ -34786,7 +34786,7 @@
         <v>340</v>
       </c>
       <c r="G434" t="s">
-        <v>1632</v>
+        <v>1596</v>
       </c>
       <c r="H434">
         <v>2023</v>
@@ -34813,7 +34813,7 @@
         <v>9</v>
       </c>
       <c r="AB434" t="s">
-        <v>1649</v>
+        <v>1613</v>
       </c>
       <c r="AE434">
         <v>1806</v>
@@ -34822,10 +34822,10 @@
         <v>54</v>
       </c>
       <c r="AO434" t="s">
-        <v>1650</v>
+        <v>1614</v>
       </c>
       <c r="AP434" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ434">
         <v>575</v>
@@ -34833,10 +34833,10 @@
     </row>
     <row r="435" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>1651</v>
+        <v>1615</v>
       </c>
       <c r="B435" t="s">
-        <v>1652</v>
+        <v>1616</v>
       </c>
       <c r="C435" t="s">
         <v>45</v>
@@ -34851,13 +34851,13 @@
         <v>340</v>
       </c>
       <c r="G435" t="s">
-        <v>1632</v>
+        <v>1596</v>
       </c>
       <c r="H435">
         <v>2023</v>
       </c>
       <c r="I435" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="J435" t="s">
         <v>49</v>
@@ -34869,16 +34869,16 @@
         <v>9</v>
       </c>
       <c r="AB435" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH435" t="s">
         <v>78</v>
       </c>
       <c r="AO435" t="s">
-        <v>1653</v>
+        <v>1617</v>
       </c>
       <c r="AP435" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ435">
         <v>575</v>
@@ -34886,10 +34886,10 @@
     </row>
     <row r="436" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>1654</v>
+        <v>1618</v>
       </c>
       <c r="B436" t="s">
-        <v>1655</v>
+        <v>1619</v>
       </c>
       <c r="C436" t="s">
         <v>45</v>
@@ -34904,7 +34904,7 @@
         <v>340</v>
       </c>
       <c r="G436" t="s">
-        <v>1656</v>
+        <v>1620</v>
       </c>
       <c r="H436">
         <v>2023</v>
@@ -34931,7 +34931,7 @@
         <v>9</v>
       </c>
       <c r="AB436" t="s">
-        <v>1657</v>
+        <v>1621</v>
       </c>
       <c r="AE436">
         <v>192032</v>
@@ -34940,10 +34940,10 @@
         <v>54</v>
       </c>
       <c r="AO436" t="s">
-        <v>1658</v>
+        <v>1622</v>
       </c>
       <c r="AP436" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ436">
         <v>575</v>
@@ -34951,10 +34951,10 @@
     </row>
     <row r="437" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>1659</v>
+        <v>1623</v>
       </c>
       <c r="B437" t="s">
-        <v>1660</v>
+        <v>1624</v>
       </c>
       <c r="C437" t="s">
         <v>45</v>
@@ -34969,7 +34969,7 @@
         <v>340</v>
       </c>
       <c r="G437" t="s">
-        <v>1656</v>
+        <v>1620</v>
       </c>
       <c r="H437">
         <v>2023</v>
@@ -34996,7 +34996,7 @@
         <v>9</v>
       </c>
       <c r="AB437" t="s">
-        <v>1661</v>
+        <v>1625</v>
       </c>
       <c r="AE437">
         <v>200035</v>
@@ -35005,10 +35005,10 @@
         <v>54</v>
       </c>
       <c r="AO437" t="s">
-        <v>1662</v>
+        <v>1626</v>
       </c>
       <c r="AP437" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ437">
         <v>575</v>
@@ -35016,10 +35016,10 @@
     </row>
     <row r="438" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>1663</v>
+        <v>1627</v>
       </c>
       <c r="B438" t="s">
-        <v>1664</v>
+        <v>1628</v>
       </c>
       <c r="C438" t="s">
         <v>45</v>
@@ -35034,7 +35034,7 @@
         <v>340</v>
       </c>
       <c r="G438" t="s">
-        <v>1656</v>
+        <v>1620</v>
       </c>
       <c r="H438">
         <v>2023</v>
@@ -35061,7 +35061,7 @@
         <v>9</v>
       </c>
       <c r="AB438" t="s">
-        <v>1665</v>
+        <v>1629</v>
       </c>
       <c r="AE438">
         <v>225559</v>
@@ -35070,10 +35070,10 @@
         <v>54</v>
       </c>
       <c r="AO438" t="s">
-        <v>1666</v>
+        <v>1630</v>
       </c>
       <c r="AP438" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ438">
         <v>575</v>
@@ -35081,10 +35081,10 @@
     </row>
     <row r="439" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>1667</v>
+        <v>1631</v>
       </c>
       <c r="B439" t="s">
-        <v>1668</v>
+        <v>1632</v>
       </c>
       <c r="C439" t="s">
         <v>45</v>
@@ -35099,7 +35099,7 @@
         <v>340</v>
       </c>
       <c r="G439" t="s">
-        <v>1656</v>
+        <v>1620</v>
       </c>
       <c r="H439">
         <v>2023</v>
@@ -35126,7 +35126,7 @@
         <v>9</v>
       </c>
       <c r="AB439" t="s">
-        <v>1669</v>
+        <v>1633</v>
       </c>
       <c r="AE439" s="1">
         <v>1.4722222222222222E-2</v>
@@ -35135,10 +35135,10 @@
         <v>54</v>
       </c>
       <c r="AO439" t="s">
-        <v>1670</v>
+        <v>1634</v>
       </c>
       <c r="AP439" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ439">
         <v>575</v>
@@ -35146,10 +35146,10 @@
     </row>
     <row r="440" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>1671</v>
+        <v>1635</v>
       </c>
       <c r="B440" t="s">
-        <v>1672</v>
+        <v>1636</v>
       </c>
       <c r="C440" t="s">
         <v>45</v>
@@ -35164,13 +35164,13 @@
         <v>340</v>
       </c>
       <c r="G440" t="s">
-        <v>1656</v>
+        <v>1620</v>
       </c>
       <c r="H440">
         <v>2023</v>
       </c>
       <c r="I440" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="J440" t="s">
         <v>49</v>
@@ -35182,16 +35182,16 @@
         <v>9</v>
       </c>
       <c r="AB440" t="s">
-        <v>1247</v>
+        <v>1211</v>
       </c>
       <c r="AH440" t="s">
         <v>78</v>
       </c>
       <c r="AO440" t="s">
-        <v>1673</v>
+        <v>1637</v>
       </c>
       <c r="AP440" t="s">
-        <v>1335</v>
+        <v>1299</v>
       </c>
       <c r="AQ440">
         <v>575</v>
@@ -35199,10 +35199,10 @@
     </row>
     <row r="441" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>1674</v>
+        <v>1638</v>
       </c>
       <c r="B441" t="s">
-        <v>1675</v>
+        <v>1639</v>
       </c>
       <c r="C441" t="s">
         <v>45</v>
@@ -35217,13 +35217,13 @@
         <v>340</v>
       </c>
       <c r="G441" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H441">
         <v>2024</v>
       </c>
       <c r="I441" t="s">
-        <v>1677</v>
+        <v>1641</v>
       </c>
       <c r="J441" t="s">
         <v>49</v>
@@ -35247,19 +35247,19 @@
         <v>7</v>
       </c>
       <c r="AB441" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE441" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH441" t="s">
         <v>54</v>
       </c>
       <c r="AO441" t="s">
-        <v>1680</v>
+        <v>1644</v>
       </c>
       <c r="AP441" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ441">
         <v>575</v>
@@ -35267,10 +35267,10 @@
     </row>
     <row r="442" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>1682</v>
+        <v>1646</v>
       </c>
       <c r="B442" t="s">
-        <v>1683</v>
+        <v>1647</v>
       </c>
       <c r="C442" t="s">
         <v>45</v>
@@ -35285,13 +35285,13 @@
         <v>340</v>
       </c>
       <c r="G442" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H442">
         <v>2024</v>
       </c>
       <c r="I442" t="s">
-        <v>1677</v>
+        <v>1641</v>
       </c>
       <c r="J442" t="s">
         <v>49</v>
@@ -35315,19 +35315,19 @@
         <v>7</v>
       </c>
       <c r="AB442" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE442" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH442" t="s">
         <v>54</v>
       </c>
       <c r="AO442" t="s">
-        <v>1684</v>
+        <v>1648</v>
       </c>
       <c r="AP442" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ442">
         <v>575</v>
@@ -35335,10 +35335,10 @@
     </row>
     <row r="443" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>1685</v>
+        <v>1649</v>
       </c>
       <c r="B443" t="s">
-        <v>1686</v>
+        <v>1650</v>
       </c>
       <c r="C443" t="s">
         <v>45</v>
@@ -35353,13 +35353,13 @@
         <v>340</v>
       </c>
       <c r="G443" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H443">
         <v>2024</v>
       </c>
       <c r="I443" t="s">
-        <v>1677</v>
+        <v>1641</v>
       </c>
       <c r="J443" t="s">
         <v>49</v>
@@ -35383,19 +35383,19 @@
         <v>7</v>
       </c>
       <c r="AB443" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE443" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH443" t="s">
         <v>54</v>
       </c>
       <c r="AO443" t="s">
-        <v>1687</v>
+        <v>1651</v>
       </c>
       <c r="AP443" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ443">
         <v>575</v>
@@ -35403,10 +35403,10 @@
     </row>
     <row r="444" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>1688</v>
+        <v>1652</v>
       </c>
       <c r="B444" t="s">
-        <v>1689</v>
+        <v>1653</v>
       </c>
       <c r="C444" t="s">
         <v>45</v>
@@ -35421,13 +35421,13 @@
         <v>340</v>
       </c>
       <c r="G444" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H444">
         <v>2024</v>
       </c>
       <c r="I444" t="s">
-        <v>1677</v>
+        <v>1641</v>
       </c>
       <c r="J444" t="s">
         <v>49</v>
@@ -35451,19 +35451,19 @@
         <v>7</v>
       </c>
       <c r="AB444" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE444" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH444" t="s">
         <v>54</v>
       </c>
       <c r="AO444" t="s">
-        <v>1690</v>
+        <v>1654</v>
       </c>
       <c r="AP444" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ444">
         <v>575</v>
@@ -35471,10 +35471,10 @@
     </row>
     <row r="445" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>1691</v>
+        <v>1655</v>
       </c>
       <c r="B445" t="s">
-        <v>1692</v>
+        <v>1656</v>
       </c>
       <c r="C445" t="s">
         <v>45</v>
@@ -35489,13 +35489,13 @@
         <v>340</v>
       </c>
       <c r="G445" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H445">
         <v>2024</v>
       </c>
       <c r="I445" t="s">
-        <v>1677</v>
+        <v>1641</v>
       </c>
       <c r="J445" t="s">
         <v>49</v>
@@ -35519,19 +35519,19 @@
         <v>7</v>
       </c>
       <c r="AB445" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE445" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH445" t="s">
         <v>54</v>
       </c>
       <c r="AO445" t="s">
-        <v>1693</v>
+        <v>1657</v>
       </c>
       <c r="AP445" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ445">
         <v>575</v>
@@ -35539,10 +35539,10 @@
     </row>
     <row r="446" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>1694</v>
+        <v>1658</v>
       </c>
       <c r="B446" t="s">
-        <v>1695</v>
+        <v>1659</v>
       </c>
       <c r="C446" t="s">
         <v>45</v>
@@ -35557,13 +35557,13 @@
         <v>340</v>
       </c>
       <c r="G446" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H446">
         <v>2024</v>
       </c>
       <c r="I446" t="s">
-        <v>1677</v>
+        <v>1641</v>
       </c>
       <c r="J446" t="s">
         <v>49</v>
@@ -35587,19 +35587,19 @@
         <v>7</v>
       </c>
       <c r="AB446" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE446" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH446" t="s">
         <v>54</v>
       </c>
       <c r="AO446" t="s">
-        <v>1696</v>
+        <v>1660</v>
       </c>
       <c r="AP446" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ446">
         <v>575</v>
@@ -35607,10 +35607,10 @@
     </row>
     <row r="447" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>1697</v>
+        <v>1661</v>
       </c>
       <c r="B447" t="s">
-        <v>1698</v>
+        <v>1662</v>
       </c>
       <c r="C447" t="s">
         <v>45</v>
@@ -35625,13 +35625,13 @@
         <v>340</v>
       </c>
       <c r="G447" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H447">
         <v>2024</v>
       </c>
       <c r="I447" t="s">
-        <v>1677</v>
+        <v>1641</v>
       </c>
       <c r="J447" t="s">
         <v>49</v>
@@ -35655,19 +35655,19 @@
         <v>7</v>
       </c>
       <c r="AB447" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE447" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH447" t="s">
         <v>54</v>
       </c>
       <c r="AO447" t="s">
-        <v>1699</v>
+        <v>1663</v>
       </c>
       <c r="AP447" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ447">
         <v>575</v>
@@ -35675,10 +35675,10 @@
     </row>
     <row r="448" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>1700</v>
+        <v>1664</v>
       </c>
       <c r="B448" t="s">
-        <v>1701</v>
+        <v>1665</v>
       </c>
       <c r="C448" t="s">
         <v>45</v>
@@ -35693,13 +35693,13 @@
         <v>340</v>
       </c>
       <c r="G448" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H448">
         <v>2024</v>
       </c>
       <c r="I448" t="s">
-        <v>1677</v>
+        <v>1641</v>
       </c>
       <c r="J448" t="s">
         <v>49</v>
@@ -35723,19 +35723,19 @@
         <v>7</v>
       </c>
       <c r="AB448" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE448" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH448" t="s">
         <v>54</v>
       </c>
       <c r="AO448" t="s">
-        <v>1702</v>
+        <v>1666</v>
       </c>
       <c r="AP448" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ448">
         <v>575</v>
@@ -35743,10 +35743,10 @@
     </row>
     <row r="449" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>1703</v>
+        <v>1667</v>
       </c>
       <c r="B449" t="s">
-        <v>1704</v>
+        <v>1668</v>
       </c>
       <c r="C449" t="s">
         <v>45</v>
@@ -35761,13 +35761,13 @@
         <v>340</v>
       </c>
       <c r="G449" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H449">
         <v>2024</v>
       </c>
       <c r="I449" t="s">
-        <v>1677</v>
+        <v>1641</v>
       </c>
       <c r="J449" t="s">
         <v>49</v>
@@ -35791,19 +35791,19 @@
         <v>7</v>
       </c>
       <c r="AB449" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE449" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH449" t="s">
         <v>54</v>
       </c>
       <c r="AO449" t="s">
-        <v>1705</v>
+        <v>1669</v>
       </c>
       <c r="AP449" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ449">
         <v>575</v>
@@ -35811,10 +35811,10 @@
     </row>
     <row r="450" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>1706</v>
+        <v>1670</v>
       </c>
       <c r="B450" t="s">
-        <v>1707</v>
+        <v>1671</v>
       </c>
       <c r="C450" t="s">
         <v>45</v>
@@ -35829,13 +35829,13 @@
         <v>340</v>
       </c>
       <c r="G450" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H450">
         <v>2024</v>
       </c>
       <c r="I450" t="s">
-        <v>1708</v>
+        <v>1672</v>
       </c>
       <c r="J450" t="s">
         <v>49</v>
@@ -35859,19 +35859,19 @@
         <v>7</v>
       </c>
       <c r="AB450" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE450" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH450" t="s">
         <v>54</v>
       </c>
       <c r="AO450" t="s">
-        <v>1709</v>
+        <v>1673</v>
       </c>
       <c r="AP450" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ450">
         <v>575</v>
@@ -35879,10 +35879,10 @@
     </row>
     <row r="451" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>1710</v>
+        <v>1674</v>
       </c>
       <c r="B451" t="s">
-        <v>1711</v>
+        <v>1675</v>
       </c>
       <c r="C451" t="s">
         <v>45</v>
@@ -35897,13 +35897,13 @@
         <v>340</v>
       </c>
       <c r="G451" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H451">
         <v>2024</v>
       </c>
       <c r="I451" t="s">
-        <v>1677</v>
+        <v>1641</v>
       </c>
       <c r="J451" t="s">
         <v>49</v>
@@ -35927,19 +35927,19 @@
         <v>7</v>
       </c>
       <c r="AB451" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE451" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH451" t="s">
         <v>54</v>
       </c>
       <c r="AO451" t="s">
-        <v>1712</v>
+        <v>1676</v>
       </c>
       <c r="AP451" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ451">
         <v>575</v>
@@ -35947,10 +35947,10 @@
     </row>
     <row r="452" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>1713</v>
+        <v>1677</v>
       </c>
       <c r="B452" t="s">
-        <v>1714</v>
+        <v>1678</v>
       </c>
       <c r="C452" t="s">
         <v>45</v>
@@ -35965,13 +35965,13 @@
         <v>340</v>
       </c>
       <c r="G452" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H452">
         <v>2024</v>
       </c>
       <c r="I452" t="s">
-        <v>1677</v>
+        <v>1641</v>
       </c>
       <c r="J452" t="s">
         <v>49</v>
@@ -35995,19 +35995,19 @@
         <v>7</v>
       </c>
       <c r="AB452" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE452" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH452" t="s">
         <v>54</v>
       </c>
       <c r="AO452" t="s">
-        <v>1715</v>
+        <v>1679</v>
       </c>
       <c r="AP452" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ452">
         <v>575</v>
@@ -36015,10 +36015,10 @@
     </row>
     <row r="453" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>1716</v>
+        <v>1680</v>
       </c>
       <c r="B453" t="s">
-        <v>1717</v>
+        <v>1681</v>
       </c>
       <c r="C453" t="s">
         <v>45</v>
@@ -36033,13 +36033,13 @@
         <v>340</v>
       </c>
       <c r="G453" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H453">
         <v>2024</v>
       </c>
       <c r="I453" t="s">
-        <v>1718</v>
+        <v>1682</v>
       </c>
       <c r="J453" t="s">
         <v>49</v>
@@ -36063,19 +36063,19 @@
         <v>7</v>
       </c>
       <c r="AB453" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE453" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH453" t="s">
         <v>54</v>
       </c>
       <c r="AO453" t="s">
-        <v>1719</v>
+        <v>1683</v>
       </c>
       <c r="AP453" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ453">
         <v>575</v>
@@ -36083,10 +36083,10 @@
     </row>
     <row r="454" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>1720</v>
+        <v>1684</v>
       </c>
       <c r="B454" t="s">
-        <v>1721</v>
+        <v>1685</v>
       </c>
       <c r="C454" t="s">
         <v>45</v>
@@ -36101,13 +36101,13 @@
         <v>340</v>
       </c>
       <c r="G454" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H454">
         <v>2024</v>
       </c>
       <c r="I454" t="s">
-        <v>1718</v>
+        <v>1682</v>
       </c>
       <c r="J454" t="s">
         <v>49</v>
@@ -36131,19 +36131,19 @@
         <v>7</v>
       </c>
       <c r="AB454" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE454" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH454" t="s">
         <v>54</v>
       </c>
       <c r="AO454" t="s">
-        <v>1722</v>
+        <v>1686</v>
       </c>
       <c r="AP454" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ454">
         <v>575</v>
@@ -36151,10 +36151,10 @@
     </row>
     <row r="455" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>1723</v>
+        <v>1687</v>
       </c>
       <c r="B455" t="s">
-        <v>1724</v>
+        <v>1688</v>
       </c>
       <c r="C455" t="s">
         <v>45</v>
@@ -36169,13 +36169,13 @@
         <v>340</v>
       </c>
       <c r="G455" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H455">
         <v>2024</v>
       </c>
       <c r="I455" t="s">
-        <v>1718</v>
+        <v>1682</v>
       </c>
       <c r="J455" t="s">
         <v>49</v>
@@ -36199,19 +36199,19 @@
         <v>7</v>
       </c>
       <c r="AB455" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE455" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH455" t="s">
         <v>54</v>
       </c>
       <c r="AO455" t="s">
-        <v>1725</v>
+        <v>1689</v>
       </c>
       <c r="AP455" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ455">
         <v>575</v>
@@ -36219,10 +36219,10 @@
     </row>
     <row r="456" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>1726</v>
+        <v>1690</v>
       </c>
       <c r="B456" t="s">
-        <v>1727</v>
+        <v>1691</v>
       </c>
       <c r="C456" t="s">
         <v>45</v>
@@ -36237,13 +36237,13 @@
         <v>340</v>
       </c>
       <c r="G456" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H456">
         <v>2024</v>
       </c>
       <c r="I456" t="s">
-        <v>1718</v>
+        <v>1682</v>
       </c>
       <c r="J456" t="s">
         <v>49</v>
@@ -36267,19 +36267,19 @@
         <v>7</v>
       </c>
       <c r="AB456" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE456" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH456" t="s">
         <v>54</v>
       </c>
       <c r="AO456" t="s">
-        <v>1728</v>
+        <v>1692</v>
       </c>
       <c r="AP456" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ456">
         <v>575</v>
@@ -36287,10 +36287,10 @@
     </row>
     <row r="457" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>1729</v>
+        <v>1693</v>
       </c>
       <c r="B457" t="s">
-        <v>1730</v>
+        <v>1694</v>
       </c>
       <c r="C457" t="s">
         <v>45</v>
@@ -36305,13 +36305,13 @@
         <v>340</v>
       </c>
       <c r="G457" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H457">
         <v>2024</v>
       </c>
       <c r="I457" t="s">
-        <v>1718</v>
+        <v>1682</v>
       </c>
       <c r="J457" t="s">
         <v>49</v>
@@ -36335,19 +36335,19 @@
         <v>7</v>
       </c>
       <c r="AB457" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE457" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH457" t="s">
         <v>54</v>
       </c>
       <c r="AO457" t="s">
-        <v>1731</v>
+        <v>1695</v>
       </c>
       <c r="AP457" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ457">
         <v>575</v>
@@ -36355,10 +36355,10 @@
     </row>
     <row r="458" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>1732</v>
+        <v>1696</v>
       </c>
       <c r="B458" t="s">
-        <v>1733</v>
+        <v>1697</v>
       </c>
       <c r="C458" t="s">
         <v>45</v>
@@ -36373,13 +36373,13 @@
         <v>340</v>
       </c>
       <c r="G458" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H458">
         <v>2024</v>
       </c>
       <c r="I458" t="s">
-        <v>1718</v>
+        <v>1682</v>
       </c>
       <c r="J458" t="s">
         <v>49</v>
@@ -36403,19 +36403,19 @@
         <v>7</v>
       </c>
       <c r="AB458" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE458" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH458" t="s">
         <v>54</v>
       </c>
       <c r="AO458" t="s">
-        <v>1734</v>
+        <v>1698</v>
       </c>
       <c r="AP458" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ458">
         <v>575</v>
@@ -36423,10 +36423,10 @@
     </row>
     <row r="459" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>1735</v>
+        <v>1699</v>
       </c>
       <c r="B459" t="s">
-        <v>1736</v>
+        <v>1700</v>
       </c>
       <c r="C459" t="s">
         <v>45</v>
@@ -36441,13 +36441,13 @@
         <v>340</v>
       </c>
       <c r="G459" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H459">
         <v>2024</v>
       </c>
       <c r="I459" t="s">
-        <v>1718</v>
+        <v>1682</v>
       </c>
       <c r="J459" t="s">
         <v>49</v>
@@ -36471,19 +36471,19 @@
         <v>7</v>
       </c>
       <c r="AB459" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE459" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH459" t="s">
         <v>54</v>
       </c>
       <c r="AO459" t="s">
-        <v>1737</v>
+        <v>1701</v>
       </c>
       <c r="AP459" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ459">
         <v>575</v>
@@ -36491,10 +36491,10 @@
     </row>
     <row r="460" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>1738</v>
+        <v>1702</v>
       </c>
       <c r="B460" t="s">
-        <v>1739</v>
+        <v>1703</v>
       </c>
       <c r="C460" t="s">
         <v>45</v>
@@ -36509,13 +36509,13 @@
         <v>340</v>
       </c>
       <c r="G460" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H460">
         <v>2024</v>
       </c>
       <c r="I460" t="s">
-        <v>1718</v>
+        <v>1682</v>
       </c>
       <c r="J460" t="s">
         <v>49</v>
@@ -36539,19 +36539,19 @@
         <v>7</v>
       </c>
       <c r="AB460" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE460" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH460" t="s">
         <v>54</v>
       </c>
       <c r="AO460" t="s">
-        <v>1740</v>
+        <v>1704</v>
       </c>
       <c r="AP460" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ460">
         <v>575</v>
@@ -36559,10 +36559,10 @@
     </row>
     <row r="461" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>1741</v>
+        <v>1705</v>
       </c>
       <c r="B461" t="s">
-        <v>1742</v>
+        <v>1706</v>
       </c>
       <c r="C461" t="s">
         <v>45</v>
@@ -36577,13 +36577,13 @@
         <v>340</v>
       </c>
       <c r="G461" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H461">
         <v>2024</v>
       </c>
       <c r="I461" t="s">
-        <v>1718</v>
+        <v>1682</v>
       </c>
       <c r="J461" t="s">
         <v>49</v>
@@ -36607,19 +36607,19 @@
         <v>7</v>
       </c>
       <c r="AB461" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE461" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH461" t="s">
         <v>54</v>
       </c>
       <c r="AO461" t="s">
-        <v>1743</v>
+        <v>1707</v>
       </c>
       <c r="AP461" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ461">
         <v>575</v>
@@ -36627,10 +36627,10 @@
     </row>
     <row r="462" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>1744</v>
+        <v>1708</v>
       </c>
       <c r="B462" t="s">
-        <v>1745</v>
+        <v>1709</v>
       </c>
       <c r="C462" t="s">
         <v>45</v>
@@ -36645,13 +36645,13 @@
         <v>340</v>
       </c>
       <c r="G462" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H462">
         <v>2024</v>
       </c>
       <c r="I462" t="s">
-        <v>1718</v>
+        <v>1682</v>
       </c>
       <c r="J462" t="s">
         <v>49</v>
@@ -36675,19 +36675,19 @@
         <v>7</v>
       </c>
       <c r="AB462" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE462" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH462" t="s">
         <v>54</v>
       </c>
       <c r="AO462" t="s">
-        <v>1746</v>
+        <v>1710</v>
       </c>
       <c r="AP462" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ462">
         <v>575</v>
@@ -36695,10 +36695,10 @@
     </row>
     <row r="463" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>1747</v>
+        <v>1711</v>
       </c>
       <c r="B463" t="s">
-        <v>1748</v>
+        <v>1712</v>
       </c>
       <c r="C463" t="s">
         <v>45</v>
@@ -36713,13 +36713,13 @@
         <v>340</v>
       </c>
       <c r="G463" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H463">
         <v>2024</v>
       </c>
       <c r="I463" t="s">
-        <v>1718</v>
+        <v>1682</v>
       </c>
       <c r="J463" t="s">
         <v>49</v>
@@ -36743,19 +36743,19 @@
         <v>7</v>
       </c>
       <c r="AB463" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE463" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH463" t="s">
         <v>54</v>
       </c>
       <c r="AO463" t="s">
-        <v>1749</v>
+        <v>1713</v>
       </c>
       <c r="AP463" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ463">
         <v>575</v>
@@ -36763,10 +36763,10 @@
     </row>
     <row r="464" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>1750</v>
+        <v>1714</v>
       </c>
       <c r="B464" t="s">
-        <v>1751</v>
+        <v>1715</v>
       </c>
       <c r="C464" t="s">
         <v>45</v>
@@ -36781,13 +36781,13 @@
         <v>340</v>
       </c>
       <c r="G464" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
       <c r="H464">
         <v>2024</v>
       </c>
       <c r="I464" t="s">
-        <v>1718</v>
+        <v>1682</v>
       </c>
       <c r="J464" t="s">
         <v>49</v>
@@ -36811,19 +36811,19 @@
         <v>7</v>
       </c>
       <c r="AB464" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
       <c r="AE464" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
       <c r="AH464" t="s">
         <v>54</v>
       </c>
       <c r="AO464" t="s">
-        <v>1752</v>
+        <v>1716</v>
       </c>
       <c r="AP464" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="AQ464">
         <v>575</v>
